--- a/CPlusPlus/相关资料/c++培训课纲.xlsx
+++ b/CPlusPlus/相关资料/c++培训课纲.xlsx
@@ -499,10 +499,10 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -520,22 +520,7 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -569,31 +554,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -608,8 +570,46 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -623,34 +623,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -661,15 +638,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -683,26 +669,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -733,31 +718,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -769,145 +892,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -921,17 +906,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -945,13 +944,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -971,35 +974,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1023,174 +1008,171 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1199,28 +1181,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
@@ -1230,24 +1200,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1658,8 +1619,8 @@
   <sheetPr/>
   <dimension ref="A1:I103"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1842,13 +1803,13 @@
       </c>
     </row>
     <row r="21" ht="94.5" spans="2:5">
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D21" s="1">
         <v>2</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1861,16 +1822,16 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5" t="s">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6">
+      <c r="C23" s="4"/>
+      <c r="D23" s="5">
         <f>SUM(D2,D8,D14,D20,D21,D22)</f>
         <v>11</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1979,13 +1940,13 @@
       </c>
     </row>
     <row r="39" ht="351" spans="2:9">
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D39" s="1">
         <v>2</v>
       </c>
-      <c r="E39" s="26" t="s">
+      <c r="E39" s="18" t="s">
         <v>45</v>
       </c>
       <c r="I39" s="1"/>
@@ -1999,16 +1960,16 @@
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5" t="s">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="6">
+      <c r="C41" s="4"/>
+      <c r="D41" s="5">
         <f>SUM(D25,D32,D38,D39,D40)</f>
         <v>9.5</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="E41" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2064,20 +2025,20 @@
       <c r="D49" s="1"/>
     </row>
     <row r="50" customFormat="1" spans="1:5">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5" t="s">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C50" s="5"/>
-      <c r="D50" s="6">
+      <c r="C50" s="4"/>
+      <c r="D50" s="5">
         <f>SUM(D43,D44,D48,D49)</f>
         <v>1.5</v>
       </c>
-      <c r="E50" s="5"/>
+      <c r="E50" s="4"/>
     </row>
     <row r="51" customFormat="1"/>
     <row r="52" spans="1:5">
-      <c r="A52" s="15" t="s">
+      <c r="A52" s="10" t="s">
         <v>54</v>
       </c>
       <c r="B52" t="s">
@@ -2089,7 +2050,7 @@
       <c r="D52">
         <v>1</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="E52" s="2" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2129,7 +2090,7 @@
       <c r="B57" t="s">
         <v>31</v>
       </c>
-      <c r="D57" s="6">
+      <c r="D57" s="5">
         <f>SUM(D52,D53,D54,D56,D55)</f>
         <v>27</v>
       </c>
@@ -2138,21 +2099,22 @@
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="6" t="s">
+      <c r="A59" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
     </row>
     <row r="103" ht="283.5" spans="5:5">
-      <c r="E103" s="3" t="s">
+      <c r="E103" s="2" t="s">
         <v>64</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -2221,47 +2183,47 @@
     </row>
     <row r="3" ht="121.5" spans="1:5">
       <c r="A3" s="1"/>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
-      <c r="E3" s="18"/>
+      <c r="E3" s="13"/>
     </row>
     <row r="4" ht="81" spans="1:5">
       <c r="A4" s="1"/>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" s="18"/>
+      <c r="E4" s="13"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1"/>
       <c r="B5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="2"/>
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5" s="18"/>
+      <c r="E5" s="13"/>
     </row>
     <row r="6" ht="175.5" spans="1:5">
       <c r="A6" s="1"/>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>68</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
-      <c r="E6" s="18"/>
+      <c r="E6" s="13"/>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" t="s">
@@ -2270,31 +2232,31 @@
       <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7" s="18"/>
+      <c r="E7" s="13"/>
     </row>
     <row r="8" customFormat="1" spans="1:5">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5" t="s">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6">
+      <c r="C8" s="4"/>
+      <c r="D8" s="5">
         <f>SUM(D2:D7)</f>
         <v>8</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="13" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="9" ht="12" customHeight="1" spans="1:5">
       <c r="A9" s="1"/>
-      <c r="C9" s="3"/>
-      <c r="E9" s="18"/>
+      <c r="C9" s="2"/>
+      <c r="E9" s="13"/>
     </row>
     <row r="10" ht="12" customHeight="1" spans="1:5">
       <c r="A10" s="1"/>
-      <c r="C10" s="3"/>
-      <c r="E10" s="18"/>
+      <c r="C10" s="2"/>
+      <c r="E10" s="13"/>
     </row>
     <row r="11" ht="54" spans="1:5">
       <c r="A11" s="1" t="s">
@@ -2303,22 +2265,22 @@
       <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>70</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
-      <c r="E11" s="18"/>
+      <c r="E11" s="13"/>
     </row>
     <row r="12" ht="67.5" spans="3:5">
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D12">
         <v>2</v>
       </c>
-      <c r="E12" s="18"/>
+      <c r="E12" s="13"/>
     </row>
     <row r="13" spans="3:5">
       <c r="C13" t="s">
@@ -2327,7 +2289,7 @@
       <c r="D13">
         <v>1</v>
       </c>
-      <c r="E13" s="18"/>
+      <c r="E13" s="13"/>
     </row>
     <row r="14" spans="3:5">
       <c r="C14" t="s">
@@ -2336,31 +2298,31 @@
       <c r="D14">
         <v>1</v>
       </c>
-      <c r="E14" s="18"/>
+      <c r="E14" s="13"/>
     </row>
     <row r="15" customFormat="1" spans="1:5">
       <c r="A15" s="1"/>
       <c r="B15" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="3"/>
+      <c r="C15" s="2"/>
       <c r="D15">
         <v>1</v>
       </c>
-      <c r="E15" s="18"/>
+      <c r="E15" s="13"/>
     </row>
     <row r="16" customFormat="1" ht="40.5" spans="1:5">
       <c r="A16" s="1"/>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D16">
         <v>2</v>
       </c>
-      <c r="E16" s="18"/>
+      <c r="E16" s="13"/>
     </row>
     <row r="17" customFormat="1" spans="2:5">
       <c r="B17" t="s">
@@ -2369,24 +2331,24 @@
       <c r="D17">
         <v>1</v>
       </c>
-      <c r="E17" s="18"/>
+      <c r="E17" s="13"/>
     </row>
     <row r="18" customFormat="1" spans="1:5">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5" t="s">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6">
+      <c r="C18" s="4"/>
+      <c r="D18" s="5">
         <f>SUM(D11:D17)</f>
         <v>10</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="13" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="19" spans="5:5">
-      <c r="E19" s="18"/>
+      <c r="E19" s="13"/>
     </row>
     <row r="20" customFormat="1" ht="67.5" spans="1:5">
       <c r="A20" s="1" t="s">
@@ -2395,64 +2357,64 @@
       <c r="B20" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>76</v>
       </c>
       <c r="D20">
         <v>2</v>
       </c>
-      <c r="E20" s="18"/>
+      <c r="E20" s="13"/>
     </row>
     <row r="21" customFormat="1" ht="67.5" spans="3:5">
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>77</v>
       </c>
       <c r="D21">
         <v>2</v>
       </c>
-      <c r="E21" s="18"/>
+      <c r="E21" s="13"/>
     </row>
     <row r="22" customFormat="1" ht="54" spans="3:5">
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
-      <c r="E22" s="18"/>
+      <c r="E22" s="13"/>
     </row>
     <row r="23" customFormat="1" ht="52" customHeight="1" spans="3:5">
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>79</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
-      <c r="E23" s="18"/>
+      <c r="E23" s="13"/>
     </row>
     <row r="24" customFormat="1" spans="1:5">
       <c r="A24" s="1"/>
       <c r="B24" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="3"/>
+      <c r="C24" s="2"/>
       <c r="D24">
         <v>1</v>
       </c>
-      <c r="E24" s="18"/>
+      <c r="E24" s="13"/>
     </row>
     <row r="25" customFormat="1" ht="40.5" spans="1:5">
       <c r="A25" s="1"/>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>80</v>
       </c>
       <c r="D25">
         <v>2</v>
       </c>
-      <c r="E25" s="18"/>
+      <c r="E25" s="13"/>
     </row>
     <row r="26" customFormat="1" spans="2:5">
       <c r="B26" t="s">
@@ -2461,26 +2423,26 @@
       <c r="D26">
         <v>1</v>
       </c>
-      <c r="E26" s="18"/>
+      <c r="E26" s="13"/>
     </row>
     <row r="27" customFormat="1" spans="1:5">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5" t="s">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6">
+      <c r="C27" s="4"/>
+      <c r="D27" s="5">
         <f>SUM(D19:D26)</f>
         <v>10</v>
       </c>
-      <c r="E27" s="18" t="s">
+      <c r="E27" s="13" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="1:5">
       <c r="A28" s="1"/>
-      <c r="C28" s="3"/>
-      <c r="E28" s="18"/>
+      <c r="C28" s="2"/>
+      <c r="E28" s="13"/>
     </row>
     <row r="29" customFormat="1" ht="40.5" spans="1:5">
       <c r="A29" s="1" t="s">
@@ -2489,63 +2451,63 @@
       <c r="B29" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="2" t="s">
         <v>82</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
-      <c r="E29" s="18"/>
+      <c r="E29" s="13"/>
     </row>
     <row r="30" customFormat="1" spans="1:5">
       <c r="A30" s="1"/>
-      <c r="C30" s="3"/>
-      <c r="E30" s="18"/>
+      <c r="C30" s="2"/>
+      <c r="E30" s="13"/>
     </row>
     <row r="31" customFormat="1" spans="3:5">
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
-      <c r="E31" s="18"/>
+      <c r="E31" s="13"/>
     </row>
     <row r="32" customFormat="1" spans="1:5">
       <c r="A32" s="1"/>
       <c r="B32" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="3"/>
+      <c r="C32" s="2"/>
       <c r="D32">
         <v>1</v>
       </c>
-      <c r="E32" s="18"/>
+      <c r="E32" s="13"/>
     </row>
     <row r="33" customFormat="1" ht="27" spans="1:5">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5" t="s">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="6">
+      <c r="C33" s="4"/>
+      <c r="D33" s="5">
         <f>SUM(D29:D32)</f>
         <v>3</v>
       </c>
-      <c r="E33" s="19" t="s">
+      <c r="E33" s="14" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="34" customFormat="1" spans="1:3">
       <c r="A34" s="1"/>
-      <c r="C34" s="3"/>
+      <c r="C34" s="2"/>
     </row>
     <row r="35" customFormat="1" spans="1:3">
       <c r="A35" s="1"/>
-      <c r="C35" s="3"/>
+      <c r="C35" s="2"/>
     </row>
     <row r="36" customFormat="1" spans="1:5">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="10" t="s">
         <v>54</v>
       </c>
       <c r="B36" t="s">
@@ -2557,12 +2519,12 @@
       <c r="D36">
         <v>1</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="2" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="37" customFormat="1" spans="1:4">
-      <c r="A37" s="15"/>
+      <c r="A37" s="10"/>
       <c r="C37" t="s">
         <v>58</v>
       </c>
@@ -2571,7 +2533,7 @@
       </c>
     </row>
     <row r="38" customFormat="1" spans="1:4">
-      <c r="A38" s="15"/>
+      <c r="A38" s="10"/>
       <c r="C38" t="s">
         <v>59</v>
       </c>
@@ -2580,7 +2542,7 @@
       </c>
     </row>
     <row r="39" customFormat="1" spans="1:4">
-      <c r="A39" s="15"/>
+      <c r="A39" s="10"/>
       <c r="C39" t="s">
         <v>60</v>
       </c>
@@ -2589,7 +2551,7 @@
       </c>
     </row>
     <row r="40" customFormat="1" spans="1:4">
-      <c r="A40" s="15"/>
+      <c r="A40" s="10"/>
       <c r="C40" t="s">
         <v>61</v>
       </c>
@@ -2598,53 +2560,54 @@
       </c>
     </row>
     <row r="41" customFormat="1" spans="1:5">
-      <c r="A41" s="15"/>
+      <c r="A41" s="10"/>
       <c r="B41" t="s">
         <v>31</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41" s="5">
         <f>SUM(D36,D37,D38,D40,D39)</f>
         <v>22</v>
       </c>
-      <c r="E41" s="24" t="s">
+      <c r="E41" s="16" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="42" customFormat="1" spans="1:4">
-      <c r="A42" s="15"/>
-      <c r="D42" s="17"/>
+      <c r="A42" s="10"/>
+      <c r="D42" s="12"/>
     </row>
     <row r="43" customFormat="1" spans="1:5">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1"/>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="18"/>
+      <c r="A72" s="13"/>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1"/>
     </row>
     <row r="81" spans="1:1">
-      <c r="A81" s="25"/>
+      <c r="A81" s="17"/>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="15"/>
+      <c r="A83" s="10"/>
     </row>
     <row r="125" spans="1:1">
-      <c r="A125" s="6" t="s">
+      <c r="A125" s="5" t="s">
         <v>88</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -2694,7 +2657,7 @@
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>89</v>
       </c>
       <c r="D2">
@@ -2712,17 +2675,17 @@
     </row>
     <row r="3" customFormat="1" ht="148.5" spans="1:5">
       <c r="A3" s="1"/>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>90</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
-      <c r="E3" s="18"/>
+      <c r="E3" s="13"/>
     </row>
     <row r="4" customFormat="1" ht="148.5" spans="1:4">
       <c r="A4" s="1"/>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>91</v>
       </c>
       <c r="D4">
@@ -2731,35 +2694,35 @@
     </row>
     <row r="5" customFormat="1" ht="67.5" spans="1:5">
       <c r="A5" s="1"/>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>92</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
-      <c r="E5" s="18"/>
+      <c r="E5" s="13"/>
     </row>
     <row r="6" customFormat="1" spans="1:5">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="2"/>
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6" s="18"/>
+      <c r="E6" s="13"/>
     </row>
     <row r="7" customFormat="1" spans="1:5">
       <c r="A7" s="1"/>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="2"/>
       <c r="D7">
         <v>4</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="13" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2770,31 +2733,31 @@
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8" s="18"/>
+      <c r="E8" s="13"/>
     </row>
     <row r="9" customFormat="1" spans="1:5">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6">
+      <c r="C9" s="4"/>
+      <c r="D9" s="5">
         <f>SUM(D2:D8)</f>
         <v>12</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="13" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="10" customFormat="1" ht="12" customHeight="1" spans="1:5">
       <c r="A10" s="1"/>
-      <c r="C10" s="3"/>
-      <c r="E10" s="18"/>
+      <c r="C10" s="2"/>
+      <c r="E10" s="13"/>
     </row>
     <row r="11" customFormat="1" ht="12" customHeight="1" spans="1:5">
       <c r="A11" s="1"/>
-      <c r="C11" s="3"/>
-      <c r="E11" s="18"/>
+      <c r="C11" s="2"/>
+      <c r="E11" s="13"/>
     </row>
     <row r="12" customFormat="1" spans="1:5">
       <c r="A12" s="1" t="s">
@@ -2803,30 +2766,30 @@
       <c r="B12" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>94</v>
       </c>
       <c r="D12">
         <v>3</v>
       </c>
-      <c r="E12" s="18"/>
+      <c r="E12" s="13"/>
     </row>
     <row r="13" customFormat="1" spans="1:5">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5" t="s">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6">
+      <c r="C13" s="4"/>
+      <c r="D13" s="5">
         <f>SUM(D12:D12)</f>
         <v>3</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="13" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="5:5">
-      <c r="E14" s="18"/>
+      <c r="E14" s="13"/>
     </row>
     <row r="15" customFormat="1" ht="67.5" spans="1:5">
       <c r="A15" s="1" t="s">
@@ -2835,53 +2798,53 @@
       <c r="B15" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>96</v>
       </c>
       <c r="D15">
         <v>3</v>
       </c>
-      <c r="E15" s="18"/>
+      <c r="E15" s="13"/>
     </row>
     <row r="16" customFormat="1" ht="54" spans="3:5">
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
-      <c r="E16" s="18"/>
+      <c r="E16" s="13"/>
     </row>
     <row r="17" customFormat="1" ht="67.5" spans="3:5">
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>98</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
-      <c r="E17" s="18"/>
+      <c r="E17" s="13"/>
     </row>
     <row r="18" customFormat="1" spans="1:5">
       <c r="A18" s="1"/>
       <c r="B18" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="3"/>
+      <c r="C18" s="2"/>
       <c r="D18">
         <v>1</v>
       </c>
-      <c r="E18" s="18"/>
+      <c r="E18" s="13"/>
     </row>
     <row r="19" customFormat="1" ht="254" customHeight="1" spans="1:5">
       <c r="A19" s="1"/>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="9">
+      <c r="C19" s="7"/>
+      <c r="D19" s="8">
         <v>5</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="14" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2892,25 +2855,25 @@
       <c r="D20">
         <v>1</v>
       </c>
-      <c r="E20" s="18"/>
+      <c r="E20" s="13"/>
     </row>
     <row r="21" customFormat="1" spans="1:5">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5" t="s">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6">
+      <c r="C21" s="4"/>
+      <c r="D21" s="5">
         <f>SUM(D15:D20)</f>
         <v>12</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="13" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="1:3">
       <c r="A22" s="1"/>
-      <c r="C22" s="3"/>
+      <c r="C22" s="2"/>
     </row>
     <row r="23" customFormat="1" ht="54" spans="1:5">
       <c r="A23" s="1" t="s">
@@ -2919,79 +2882,78 @@
       <c r="B23" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>100</v>
       </c>
       <c r="D23">
         <v>2</v>
       </c>
-      <c r="E23" s="20"/>
+      <c r="E23" s="14"/>
     </row>
     <row r="24" customFormat="1" ht="81" spans="1:4">
       <c r="A24" s="1"/>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>101</v>
       </c>
       <c r="D24">
         <v>2</v>
       </c>
     </row>
-    <row r="25" s="2" customFormat="1" spans="1:5">
+    <row r="25" customFormat="1" spans="1:5">
       <c r="A25" s="1"/>
-      <c r="B25" s="2" t="s">
+      <c r="B25" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="2">
-        <v>1</v>
-      </c>
-      <c r="E25" s="21"/>
-    </row>
-    <row r="26" s="2" customFormat="1" ht="56" customHeight="1" spans="1:5">
-      <c r="A26" s="11"/>
-      <c r="B26" s="7" t="s">
+      <c r="C25" s="2"/>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" s="13"/>
+    </row>
+    <row r="26" customFormat="1" ht="56" customHeight="1" spans="1:5">
+      <c r="A26" s="9"/>
+      <c r="B26" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="13">
+      <c r="C26" s="7"/>
+      <c r="D26" s="8">
         <v>5</v>
       </c>
-      <c r="E26" s="22" t="s">
+      <c r="E26" s="15" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="27" s="2" customFormat="1" spans="2:5">
-      <c r="B27" s="2" t="s">
+    <row r="27" customFormat="1" spans="2:5">
+      <c r="B27" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2">
-        <v>1</v>
-      </c>
-      <c r="E27" s="21"/>
-    </row>
-    <row r="28" s="2" customFormat="1" spans="1:5">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14" t="s">
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" s="13"/>
+    </row>
+    <row r="28" customFormat="1" spans="1:5">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="6">
+      <c r="C28" s="4"/>
+      <c r="D28" s="5">
         <f>SUM(D23:D27)</f>
         <v>11</v>
       </c>
-      <c r="E28" s="21" t="s">
+      <c r="E28" s="13" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="29" s="2" customFormat="1" spans="5:5">
-      <c r="E29" s="21"/>
-    </row>
-    <row r="30" s="2" customFormat="1" spans="5:5">
-      <c r="E30" s="21"/>
+    <row r="29" customFormat="1" spans="5:5">
+      <c r="E29" s="13"/>
+    </row>
+    <row r="30" customFormat="1" spans="5:5">
+      <c r="E30" s="13"/>
     </row>
     <row r="31" customFormat="1" ht="405" spans="1:5">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="10" t="s">
         <v>54</v>
       </c>
       <c r="B31" t="s">
@@ -3003,22 +2965,22 @@
       <c r="D31">
         <v>1</v>
       </c>
-      <c r="E31" s="23" t="s">
+      <c r="E31" s="2" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="32" customFormat="1" spans="1:5">
-      <c r="A32" s="15"/>
-      <c r="C32" s="2" t="s">
+      <c r="A32" s="10"/>
+      <c r="C32" t="s">
         <v>58</v>
       </c>
       <c r="D32">
         <v>16</v>
       </c>
-      <c r="E32" s="23"/>
+      <c r="E32" s="2"/>
     </row>
     <row r="33" customFormat="1" spans="1:4">
-      <c r="A33" s="15"/>
+      <c r="A33" s="10"/>
       <c r="C33" t="s">
         <v>59</v>
       </c>
@@ -3027,7 +2989,7 @@
       </c>
     </row>
     <row r="34" customFormat="1" spans="1:4">
-      <c r="A34" s="15"/>
+      <c r="A34" s="10"/>
       <c r="C34" t="s">
         <v>60</v>
       </c>
@@ -3036,7 +2998,7 @@
       </c>
     </row>
     <row r="35" customFormat="1" spans="1:4">
-      <c r="A35" s="15"/>
+      <c r="A35" s="10"/>
       <c r="C35" t="s">
         <v>61</v>
       </c>
@@ -3045,35 +3007,35 @@
       </c>
     </row>
     <row r="36" customFormat="1" spans="1:5">
-      <c r="A36" s="15"/>
+      <c r="A36" s="10"/>
       <c r="B36" t="s">
         <v>31</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="5">
         <f>SUM(D31:D35)</f>
         <v>22</v>
       </c>
-      <c r="E36" s="24" t="s">
+      <c r="E36" s="16" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="37" customFormat="1" spans="1:5">
-      <c r="A37" s="15"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="24"/>
+      <c r="A37" s="10"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="16"/>
     </row>
     <row r="38" customFormat="1" spans="1:4">
-      <c r="A38" s="15"/>
-      <c r="D38" s="17"/>
+      <c r="A38" s="10"/>
+      <c r="D38" s="12"/>
     </row>
     <row r="39" customFormat="1" spans="1:5">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -3089,12 +3051,13 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C11" sqref="C11:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/CPlusPlus/相关资料/c++培训课纲.xlsx
+++ b/CPlusPlus/相关资料/c++培训课纲.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112">
   <si>
     <t>内容</t>
   </si>
@@ -491,18 +491,47 @@
   <si>
     <t>汇总:讲课+复习+小作业总共花去5天, 大作业3天, 一共是8天的计划</t>
   </si>
+  <si>
+    <t xml:space="preserve">1.讲课 </t>
+  </si>
+  <si>
+    <t>1.在QML中使用C++类和对象 [重点]
+    1.注册一个可以到处到C++类
+    2.到处C++类型到QML，创建实例
+    3.将一个C++对象导出为QML属性</t>
+  </si>
+  <si>
+    <t>2.在C++中使用QML对象</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.ListView
+    1.ListView的简单使用
+    2.header/footer
+    3.访问和修改Model
+    4.section
+</t>
+  </si>
+  <si>
+    <t>2.XmlListModel</t>
+  </si>
+  <si>
+    <t>3.使用C++ Model [重点]
+    1.C++实现QML可用Model
+    2.将Model导出到QML中
+    3.QML代码部分</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -512,6 +541,13 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -548,24 +584,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -574,6 +602,13 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -586,9 +621,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -615,9 +666,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -628,6 +679,14 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -647,15 +706,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -669,23 +720,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -712,13 +748,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -730,13 +772,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -748,13 +784,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -766,25 +802,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -802,7 +844,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -820,13 +880,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -838,61 +922,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -910,26 +946,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -940,6 +956,45 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -960,21 +1015,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -989,17 +1029,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1008,171 +1044,201 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1184,15 +1250,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1205,11 +1262,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1342,6 +1396,54 @@
         <a:xfrm>
           <a:off x="14681835" y="17623790"/>
           <a:ext cx="2661920" cy="1038860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>176530</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>866140</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1905000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7729855" y="5346700"/>
+          <a:ext cx="1667510" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1619,8 +1721,8 @@
   <sheetPr/>
   <dimension ref="A1:I103"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A38" sqref="$A38:$XFD41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1803,13 +1905,13 @@
       </c>
     </row>
     <row r="21" ht="94.5" spans="2:5">
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D21" s="1">
         <v>2</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="14" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1822,16 +1924,16 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4" t="s">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="5">
+      <c r="C23" s="15"/>
+      <c r="D23" s="6">
         <f>SUM(D2,D8,D14,D20,D21,D22)</f>
         <v>11</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="6" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1936,17 +2038,17 @@
         <v>27</v>
       </c>
       <c r="D38" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" ht="351" spans="2:9">
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D39" s="1">
         <v>2</v>
       </c>
-      <c r="E39" s="18" t="s">
+      <c r="E39" s="11" t="s">
         <v>45</v>
       </c>
       <c r="I39" s="1"/>
@@ -1960,16 +2062,16 @@
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4" t="s">
+      <c r="A41" s="15"/>
+      <c r="B41" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C41" s="4"/>
-      <c r="D41" s="5">
+      <c r="C41" s="15"/>
+      <c r="D41" s="6">
         <f>SUM(D25,D32,D38,D39,D40)</f>
-        <v>9.5</v>
-      </c>
-      <c r="E41" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="6" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2025,20 +2127,20 @@
       <c r="D49" s="1"/>
     </row>
     <row r="50" customFormat="1" spans="1:5">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4" t="s">
+      <c r="A50" s="15"/>
+      <c r="B50" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C50" s="4"/>
-      <c r="D50" s="5">
+      <c r="C50" s="15"/>
+      <c r="D50" s="6">
         <f>SUM(D43,D44,D48,D49)</f>
         <v>1.5</v>
       </c>
-      <c r="E50" s="4"/>
+      <c r="E50" s="15"/>
     </row>
     <row r="51" customFormat="1"/>
     <row r="52" spans="1:5">
-      <c r="A52" s="10" t="s">
+      <c r="A52" s="8" t="s">
         <v>54</v>
       </c>
       <c r="B52" t="s">
@@ -2050,7 +2152,7 @@
       <c r="D52">
         <v>1</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="E52" s="14" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2090,7 +2192,7 @@
       <c r="B57" t="s">
         <v>31</v>
       </c>
-      <c r="D57" s="5">
+      <c r="D57" s="6">
         <f>SUM(D52,D53,D54,D56,D55)</f>
         <v>27</v>
       </c>
@@ -2099,16 +2201,16 @@
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
     </row>
     <row r="103" ht="283.5" spans="5:5">
-      <c r="E103" s="2" t="s">
+      <c r="E103" s="14" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2183,47 +2285,47 @@
     </row>
     <row r="3" ht="121.5" spans="1:5">
       <c r="A3" s="1"/>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="14" t="s">
         <v>66</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
-      <c r="E3" s="13"/>
+      <c r="E3" s="20"/>
     </row>
     <row r="4" ht="81" spans="1:5">
       <c r="A4" s="1"/>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="14" t="s">
         <v>67</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" s="13"/>
+      <c r="E4" s="20"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1"/>
       <c r="B5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="14"/>
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5" s="13"/>
+      <c r="E5" s="20"/>
     </row>
     <row r="6" ht="175.5" spans="1:5">
       <c r="A6" s="1"/>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="14" t="s">
         <v>68</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
-      <c r="E6" s="13"/>
+      <c r="E6" s="20"/>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" t="s">
@@ -2232,31 +2334,31 @@
       <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7" s="13"/>
+      <c r="E7" s="20"/>
     </row>
     <row r="8" customFormat="1" spans="1:5">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="5">
+      <c r="C8" s="15"/>
+      <c r="D8" s="6">
         <f>SUM(D2:D7)</f>
         <v>8</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="20" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="9" ht="12" customHeight="1" spans="1:5">
       <c r="A9" s="1"/>
-      <c r="C9" s="2"/>
-      <c r="E9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="E9" s="20"/>
     </row>
     <row r="10" ht="12" customHeight="1" spans="1:5">
       <c r="A10" s="1"/>
-      <c r="C10" s="2"/>
-      <c r="E10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="E10" s="20"/>
     </row>
     <row r="11" ht="54" spans="1:5">
       <c r="A11" s="1" t="s">
@@ -2265,22 +2367,22 @@
       <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="14" t="s">
         <v>70</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
-      <c r="E11" s="13"/>
+      <c r="E11" s="20"/>
     </row>
     <row r="12" ht="67.5" spans="3:5">
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="14" t="s">
         <v>71</v>
       </c>
       <c r="D12">
         <v>2</v>
       </c>
-      <c r="E12" s="13"/>
+      <c r="E12" s="20"/>
     </row>
     <row r="13" spans="3:5">
       <c r="C13" t="s">
@@ -2289,7 +2391,7 @@
       <c r="D13">
         <v>1</v>
       </c>
-      <c r="E13" s="13"/>
+      <c r="E13" s="20"/>
     </row>
     <row r="14" spans="3:5">
       <c r="C14" t="s">
@@ -2298,31 +2400,31 @@
       <c r="D14">
         <v>1</v>
       </c>
-      <c r="E14" s="13"/>
+      <c r="E14" s="20"/>
     </row>
     <row r="15" customFormat="1" spans="1:5">
       <c r="A15" s="1"/>
       <c r="B15" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="2"/>
+      <c r="C15" s="14"/>
       <c r="D15">
         <v>1</v>
       </c>
-      <c r="E15" s="13"/>
+      <c r="E15" s="20"/>
     </row>
     <row r="16" customFormat="1" ht="40.5" spans="1:5">
       <c r="A16" s="1"/>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="14" t="s">
         <v>74</v>
       </c>
       <c r="D16">
         <v>2</v>
       </c>
-      <c r="E16" s="13"/>
+      <c r="E16" s="20"/>
     </row>
     <row r="17" customFormat="1" spans="2:5">
       <c r="B17" t="s">
@@ -2331,24 +2433,24 @@
       <c r="D17">
         <v>1</v>
       </c>
-      <c r="E17" s="13"/>
+      <c r="E17" s="20"/>
     </row>
     <row r="18" customFormat="1" spans="1:5">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4" t="s">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="5">
+      <c r="C18" s="15"/>
+      <c r="D18" s="6">
         <f>SUM(D11:D17)</f>
         <v>10</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="20" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="19" spans="5:5">
-      <c r="E19" s="13"/>
+      <c r="E19" s="20"/>
     </row>
     <row r="20" customFormat="1" ht="67.5" spans="1:5">
       <c r="A20" s="1" t="s">
@@ -2357,64 +2459,64 @@
       <c r="B20" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="14" t="s">
         <v>76</v>
       </c>
       <c r="D20">
         <v>2</v>
       </c>
-      <c r="E20" s="13"/>
+      <c r="E20" s="20"/>
     </row>
     <row r="21" customFormat="1" ht="67.5" spans="3:5">
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="14" t="s">
         <v>77</v>
       </c>
       <c r="D21">
         <v>2</v>
       </c>
-      <c r="E21" s="13"/>
+      <c r="E21" s="20"/>
     </row>
     <row r="22" customFormat="1" ht="54" spans="3:5">
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="14" t="s">
         <v>78</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
-      <c r="E22" s="13"/>
+      <c r="E22" s="20"/>
     </row>
     <row r="23" customFormat="1" ht="52" customHeight="1" spans="3:5">
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="14" t="s">
         <v>79</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
-      <c r="E23" s="13"/>
+      <c r="E23" s="20"/>
     </row>
     <row r="24" customFormat="1" spans="1:5">
       <c r="A24" s="1"/>
       <c r="B24" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="2"/>
+      <c r="C24" s="14"/>
       <c r="D24">
         <v>1</v>
       </c>
-      <c r="E24" s="13"/>
+      <c r="E24" s="20"/>
     </row>
     <row r="25" customFormat="1" ht="40.5" spans="1:5">
       <c r="A25" s="1"/>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="14" t="s">
         <v>80</v>
       </c>
       <c r="D25">
         <v>2</v>
       </c>
-      <c r="E25" s="13"/>
+      <c r="E25" s="20"/>
     </row>
     <row r="26" customFormat="1" spans="2:5">
       <c r="B26" t="s">
@@ -2423,26 +2525,26 @@
       <c r="D26">
         <v>1</v>
       </c>
-      <c r="E26" s="13"/>
+      <c r="E26" s="20"/>
     </row>
     <row r="27" customFormat="1" spans="1:5">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4" t="s">
+      <c r="A27" s="15"/>
+      <c r="B27" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="5">
+      <c r="C27" s="15"/>
+      <c r="D27" s="6">
         <f>SUM(D19:D26)</f>
         <v>10</v>
       </c>
-      <c r="E27" s="13" t="s">
+      <c r="E27" s="20" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="1:5">
       <c r="A28" s="1"/>
-      <c r="C28" s="2"/>
-      <c r="E28" s="13"/>
+      <c r="C28" s="14"/>
+      <c r="E28" s="20"/>
     </row>
     <row r="29" customFormat="1" ht="40.5" spans="1:5">
       <c r="A29" s="1" t="s">
@@ -2451,63 +2553,63 @@
       <c r="B29" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="14" t="s">
         <v>82</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
-      <c r="E29" s="13"/>
+      <c r="E29" s="20"/>
     </row>
     <row r="30" customFormat="1" spans="1:5">
       <c r="A30" s="1"/>
-      <c r="C30" s="2"/>
-      <c r="E30" s="13"/>
+      <c r="C30" s="14"/>
+      <c r="E30" s="20"/>
     </row>
     <row r="31" customFormat="1" spans="3:5">
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="14" t="s">
         <v>83</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
-      <c r="E31" s="13"/>
+      <c r="E31" s="20"/>
     </row>
     <row r="32" customFormat="1" spans="1:5">
       <c r="A32" s="1"/>
       <c r="B32" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="2"/>
+      <c r="C32" s="14"/>
       <c r="D32">
         <v>1</v>
       </c>
-      <c r="E32" s="13"/>
+      <c r="E32" s="20"/>
     </row>
     <row r="33" customFormat="1" ht="27" spans="1:5">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4" t="s">
+      <c r="A33" s="15"/>
+      <c r="B33" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="5">
+      <c r="C33" s="15"/>
+      <c r="D33" s="6">
         <f>SUM(D29:D32)</f>
         <v>3</v>
       </c>
-      <c r="E33" s="14" t="s">
+      <c r="E33" s="21" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="34" customFormat="1" spans="1:3">
       <c r="A34" s="1"/>
-      <c r="C34" s="2"/>
+      <c r="C34" s="14"/>
     </row>
     <row r="35" customFormat="1" spans="1:3">
       <c r="A35" s="1"/>
-      <c r="C35" s="2"/>
+      <c r="C35" s="14"/>
     </row>
     <row r="36" customFormat="1" spans="1:5">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="8" t="s">
         <v>54</v>
       </c>
       <c r="B36" t="s">
@@ -2519,12 +2621,12 @@
       <c r="D36">
         <v>1</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E36" s="14" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="37" customFormat="1" spans="1:4">
-      <c r="A37" s="10"/>
+      <c r="A37" s="8"/>
       <c r="C37" t="s">
         <v>58</v>
       </c>
@@ -2533,7 +2635,7 @@
       </c>
     </row>
     <row r="38" customFormat="1" spans="1:4">
-      <c r="A38" s="10"/>
+      <c r="A38" s="8"/>
       <c r="C38" t="s">
         <v>59</v>
       </c>
@@ -2542,7 +2644,7 @@
       </c>
     </row>
     <row r="39" customFormat="1" spans="1:4">
-      <c r="A39" s="10"/>
+      <c r="A39" s="8"/>
       <c r="C39" t="s">
         <v>60</v>
       </c>
@@ -2551,7 +2653,7 @@
       </c>
     </row>
     <row r="40" customFormat="1" spans="1:4">
-      <c r="A40" s="10"/>
+      <c r="A40" s="8"/>
       <c r="C40" t="s">
         <v>61</v>
       </c>
@@ -2560,48 +2662,48 @@
       </c>
     </row>
     <row r="41" customFormat="1" spans="1:5">
-      <c r="A41" s="10"/>
+      <c r="A41" s="8"/>
       <c r="B41" t="s">
         <v>31</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41" s="6">
         <f>SUM(D36,D37,D38,D40,D39)</f>
         <v>22</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="23" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="42" customFormat="1" spans="1:4">
-      <c r="A42" s="10"/>
-      <c r="D42" s="12"/>
+      <c r="A42" s="8"/>
+      <c r="D42" s="10"/>
     </row>
     <row r="43" customFormat="1" spans="1:5">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1"/>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="13"/>
+      <c r="A72" s="20"/>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1"/>
     </row>
     <row r="81" spans="1:1">
-      <c r="A81" s="17"/>
+      <c r="A81" s="24"/>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="10"/>
+      <c r="A83" s="8"/>
     </row>
     <row r="125" spans="1:1">
-      <c r="A125" s="5" t="s">
+      <c r="A125" s="6" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2617,8 +2719,8 @@
   <sheetPr/>
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A31" sqref="$A31:$XFD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2657,7 +2759,7 @@
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="14" t="s">
         <v>89</v>
       </c>
       <c r="D2">
@@ -2675,17 +2777,17 @@
     </row>
     <row r="3" customFormat="1" ht="148.5" spans="1:5">
       <c r="A3" s="1"/>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="14" t="s">
         <v>90</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
-      <c r="E3" s="13"/>
+      <c r="E3" s="20"/>
     </row>
     <row r="4" customFormat="1" ht="148.5" spans="1:4">
       <c r="A4" s="1"/>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="14" t="s">
         <v>91</v>
       </c>
       <c r="D4">
@@ -2694,35 +2796,35 @@
     </row>
     <row r="5" customFormat="1" ht="67.5" spans="1:5">
       <c r="A5" s="1"/>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="14" t="s">
         <v>92</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
-      <c r="E5" s="13"/>
+      <c r="E5" s="20"/>
     </row>
     <row r="6" customFormat="1" spans="1:5">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="14"/>
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6" s="13"/>
+      <c r="E6" s="20"/>
     </row>
     <row r="7" customFormat="1" spans="1:5">
       <c r="A7" s="1"/>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="14"/>
       <c r="D7">
         <v>4</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="20" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2733,31 +2835,31 @@
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8" s="13"/>
+      <c r="E8" s="20"/>
     </row>
     <row r="9" customFormat="1" spans="1:5">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5">
+      <c r="C9" s="15"/>
+      <c r="D9" s="6">
         <f>SUM(D2:D8)</f>
         <v>12</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="20" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="10" customFormat="1" ht="12" customHeight="1" spans="1:5">
       <c r="A10" s="1"/>
-      <c r="C10" s="2"/>
-      <c r="E10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="E10" s="20"/>
     </row>
     <row r="11" customFormat="1" ht="12" customHeight="1" spans="1:5">
       <c r="A11" s="1"/>
-      <c r="C11" s="2"/>
-      <c r="E11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="E11" s="20"/>
     </row>
     <row r="12" customFormat="1" spans="1:5">
       <c r="A12" s="1" t="s">
@@ -2766,30 +2868,30 @@
       <c r="B12" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="14" t="s">
         <v>94</v>
       </c>
       <c r="D12">
         <v>3</v>
       </c>
-      <c r="E12" s="13"/>
+      <c r="E12" s="20"/>
     </row>
     <row r="13" customFormat="1" spans="1:5">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4" t="s">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="5">
+      <c r="C13" s="15"/>
+      <c r="D13" s="6">
         <f>SUM(D12:D12)</f>
         <v>3</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="20" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="5:5">
-      <c r="E14" s="13"/>
+      <c r="E14" s="20"/>
     </row>
     <row r="15" customFormat="1" ht="67.5" spans="1:5">
       <c r="A15" s="1" t="s">
@@ -2798,53 +2900,53 @@
       <c r="B15" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="14" t="s">
         <v>96</v>
       </c>
       <c r="D15">
         <v>3</v>
       </c>
-      <c r="E15" s="13"/>
+      <c r="E15" s="20"/>
     </row>
     <row r="16" customFormat="1" ht="54" spans="3:5">
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="14" t="s">
         <v>97</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
-      <c r="E16" s="13"/>
+      <c r="E16" s="20"/>
     </row>
     <row r="17" customFormat="1" ht="67.5" spans="3:5">
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="14" t="s">
         <v>98</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
-      <c r="E17" s="13"/>
+      <c r="E17" s="20"/>
     </row>
     <row r="18" customFormat="1" spans="1:5">
       <c r="A18" s="1"/>
       <c r="B18" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="2"/>
+      <c r="C18" s="14"/>
       <c r="D18">
         <v>1</v>
       </c>
-      <c r="E18" s="13"/>
+      <c r="E18" s="20"/>
     </row>
     <row r="19" customFormat="1" ht="254" customHeight="1" spans="1:5">
       <c r="A19" s="1"/>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="8">
+      <c r="C19" s="17"/>
+      <c r="D19" s="18">
         <v>5</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="21" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2855,25 +2957,25 @@
       <c r="D20">
         <v>1</v>
       </c>
-      <c r="E20" s="13"/>
+      <c r="E20" s="20"/>
     </row>
     <row r="21" customFormat="1" spans="1:5">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4" t="s">
+      <c r="A21" s="15"/>
+      <c r="B21" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="5">
+      <c r="C21" s="15"/>
+      <c r="D21" s="6">
         <f>SUM(D15:D20)</f>
         <v>12</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="20" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="1:3">
       <c r="A22" s="1"/>
-      <c r="C22" s="2"/>
+      <c r="C22" s="14"/>
     </row>
     <row r="23" customFormat="1" ht="54" spans="1:5">
       <c r="A23" s="1" t="s">
@@ -2882,17 +2984,17 @@
       <c r="B23" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="14" t="s">
         <v>100</v>
       </c>
       <c r="D23">
         <v>2</v>
       </c>
-      <c r="E23" s="14"/>
+      <c r="E23" s="21"/>
     </row>
     <row r="24" customFormat="1" ht="81" spans="1:4">
       <c r="A24" s="1"/>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="14" t="s">
         <v>101</v>
       </c>
       <c r="D24">
@@ -2904,22 +3006,22 @@
       <c r="B25" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="2"/>
+      <c r="C25" s="14"/>
       <c r="D25">
         <v>1</v>
       </c>
-      <c r="E25" s="13"/>
+      <c r="E25" s="20"/>
     </row>
     <row r="26" customFormat="1" ht="56" customHeight="1" spans="1:5">
-      <c r="A26" s="9"/>
-      <c r="B26" s="6" t="s">
+      <c r="A26" s="19"/>
+      <c r="B26" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="8">
+      <c r="C26" s="17"/>
+      <c r="D26" s="18">
         <v>5</v>
       </c>
-      <c r="E26" s="15" t="s">
+      <c r="E26" s="22" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2930,30 +3032,30 @@
       <c r="D27">
         <v>1</v>
       </c>
-      <c r="E27" s="13"/>
+      <c r="E27" s="20"/>
     </row>
     <row r="28" customFormat="1" spans="1:5">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4" t="s">
+      <c r="A28" s="15"/>
+      <c r="B28" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="5">
+      <c r="C28" s="15"/>
+      <c r="D28" s="6">
         <f>SUM(D23:D27)</f>
         <v>11</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="E28" s="20" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="29" customFormat="1" spans="5:5">
-      <c r="E29" s="13"/>
+      <c r="E29" s="20"/>
     </row>
     <row r="30" customFormat="1" spans="5:5">
-      <c r="E30" s="13"/>
+      <c r="E30" s="20"/>
     </row>
     <row r="31" customFormat="1" ht="405" spans="1:5">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="8" t="s">
         <v>54</v>
       </c>
       <c r="B31" t="s">
@@ -2965,22 +3067,22 @@
       <c r="D31">
         <v>1</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="14" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="32" customFormat="1" spans="1:5">
-      <c r="A32" s="10"/>
+      <c r="A32" s="8"/>
       <c r="C32" t="s">
         <v>58</v>
       </c>
       <c r="D32">
         <v>16</v>
       </c>
-      <c r="E32" s="2"/>
+      <c r="E32" s="14"/>
     </row>
     <row r="33" customFormat="1" spans="1:4">
-      <c r="A33" s="10"/>
+      <c r="A33" s="8"/>
       <c r="C33" t="s">
         <v>59</v>
       </c>
@@ -2989,7 +3091,7 @@
       </c>
     </row>
     <row r="34" customFormat="1" spans="1:4">
-      <c r="A34" s="10"/>
+      <c r="A34" s="8"/>
       <c r="C34" t="s">
         <v>60</v>
       </c>
@@ -2998,7 +3100,7 @@
       </c>
     </row>
     <row r="35" customFormat="1" spans="1:4">
-      <c r="A35" s="10"/>
+      <c r="A35" s="8"/>
       <c r="C35" t="s">
         <v>61</v>
       </c>
@@ -3007,35 +3109,35 @@
       </c>
     </row>
     <row r="36" customFormat="1" spans="1:5">
-      <c r="A36" s="10"/>
+      <c r="A36" s="8"/>
       <c r="B36" t="s">
         <v>31</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="6">
         <f>SUM(D31:D35)</f>
         <v>22</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="23" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="37" customFormat="1" spans="1:5">
-      <c r="A37" s="10"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="16"/>
+      <c r="A37" s="8"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="23"/>
     </row>
     <row r="38" customFormat="1" spans="1:4">
-      <c r="A38" s="10"/>
-      <c r="D38" s="12"/>
+      <c r="A38" s="8"/>
+      <c r="D38" s="10"/>
     </row>
     <row r="39" customFormat="1" spans="1:5">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -3048,16 +3150,284 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:F23"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="25.5" customWidth="1"/>
+    <col min="3" max="3" width="46.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="3:8">
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="54" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="C3" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="2:4">
+      <c r="B4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="2:9">
+      <c r="B5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="2:4">
+      <c r="B6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="4:4">
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" s="2" customFormat="1" spans="1:5">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="12" customHeight="1" spans="1:5">
+      <c r="A9" s="1"/>
+      <c r="C9" s="3"/>
+      <c r="E9" s="12"/>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="12" customHeight="1" spans="1:5">
+      <c r="A10" s="1"/>
+      <c r="C10" s="3"/>
+      <c r="E10" s="12"/>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="73" customHeight="1" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2</v>
+      </c>
+      <c r="E11" s="12"/>
+    </row>
+    <row r="12" spans="3:4">
+      <c r="C12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" ht="54" spans="3:4">
+      <c r="C13" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" spans="2:4">
+      <c r="B15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" s="2" customFormat="1" spans="2:9">
+      <c r="B16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="1">
+        <v>2</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" s="2" customFormat="1" spans="2:4">
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" s="2" customFormat="1" spans="4:4">
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" s="2" customFormat="1" spans="1:5">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" s="2" customFormat="1" spans="1:5">
+      <c r="A21" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" s="2" customFormat="1" spans="1:5">
+      <c r="A22" s="8"/>
+      <c r="C22" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="2">
+        <v>16</v>
+      </c>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" s="2" customFormat="1" spans="1:4">
+      <c r="A23" s="8"/>
+      <c r="C23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" s="2" customFormat="1" spans="1:4">
+      <c r="A24" s="8"/>
+      <c r="C24" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" s="2" customFormat="1" spans="1:4">
+      <c r="A25" s="8"/>
+      <c r="C25" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" s="2" customFormat="1" spans="1:5">
+      <c r="A26" s="8"/>
+      <c r="B26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="6">
+        <f>SUM(D21:D25)</f>
+        <v>22</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" s="2" customFormat="1" spans="1:5">
+      <c r="A27" s="8"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="13"/>
+    </row>
+    <row r="28" s="2" customFormat="1" spans="1:4">
+      <c r="A28" s="8"/>
+      <c r="D28" s="10"/>
+    </row>
+    <row r="29" s="2" customFormat="1" spans="1:5">
+      <c r="A29" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/CPlusPlus/相关资料/c++培训课纲.xlsx
+++ b/CPlusPlus/相关资料/c++培训课纲.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122">
   <si>
     <t>内容</t>
   </si>
@@ -458,8 +458,7 @@
     5.裁剪</t>
   </si>
   <si>
-    <t xml:space="preserve">
-1.PCBView支持滚轮放大和缩小，右键拖动
+    <t xml:space="preserve">1.PCBView支持滚轮放大和缩小，右键拖动
 2.PCBView状态发生变化的时候(PreView)预览也发生变化，同时PreView用矩形标示当前PCBView显示的区域(PreView使用组件，一遍后续可以复用
 </t>
   </si>
@@ -467,26 +466,140 @@
     <t>在界面上实现以下功能</t>
   </si>
   <si>
-    <t>1.PCBView在背景图片上绘制形状（支持圆形和矩形），所有数据在加载后在右边的List中显示 形状来自与配置文件（Xml），配置文件格式如下：
-&lt;?xml version="1.0" encoding="utf-8"?&gt;
-&lt;Targets&gt;
-  &lt;Target&gt;
-    &lt;X&gt;10&lt;/X&gt;
-    &lt;Y&gt;223&lt;/Y&gt;
-    &lt;Shape&gt;0&lt;/Shape&gt;
-    &lt;Width&gt;100&lt;/Width&gt;
-    &lt;Height&gt;200&lt;/Height&gt;
-  &lt;/Target&gt;
-&lt;/Targets&gt;
-2.PCBView放大，缩小，拖动的时候绘制的形状也同步发生变化；
+    <r>
+      <t>1.PCBView在背景图片上绘制形状（支持圆形和矩形），一开始随机随机绘制5个形状
+2.PCBView放大，缩小，拖动的时候绘制的形状也同步发生变化
 3.形状有3重状态:
-     1.选中状态: 单击形状或者单击列表，进入后形状有特殊的样式，有右键菜单，右键菜单中有“编辑和删除”
-     2.编辑状态: 双击形状或者双击列表，形状样式参考(SPI),此时可以在PCBView拖动形状和缩放形状，也可以直接修改List中的值，每一次修改都会更新数据
-     3.删除状态: 在选中后的右键菜单上选中"删除"，或者在List的右键菜单上选中删除，该形状就会中PCBView和List中消失
-4.在PCBView或者List的空白处右击弹出右键菜单，有添加选项，可以添加形状：
-     1.点击添加后弹出类似右边的形状选择浮动控件，然后在PCBView相应的位置点击就会添加选中形状(PCBView决定了位置，大小)
-     2.当通过PCBView进行添加时，初始的坐标就是当前鼠标位置，通过List添加时，初始位置为PCBView的中心点
-5.所有数据在按下ctrl+s都能够进行保存</t>
+     1.选中状态: 单击形状或者单击列表，进入后形状有特殊的样式，选中状态下可以进行拖动，一旦拖选中一个形状，上一个形状自动取消选中状态
+     2.删除状态: 双击形状删除，该形状就会中PCBView
+4.在PCBView空白处右击弹出右键菜单，有添加选项，可以添加形状：
+     1.点击添加后弹出类似右边的形状选择</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>浮动控件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，然后在PCBView相应的位置点击就会添加选中形状(PCBView决定了位置，大小)
+     2.添加形状的初始的坐标就是当前鼠标位置，大小可以设死</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+5.PCBView左键可以支持拖动
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">任务分配:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>peter:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">整体界面，风格，布局
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>lynn:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">浮动的形状选择控件
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>grace:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">形状的选中/删除/添加
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>plato:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">数据的生成，形状的绘制，PCBView的滚轮的放大缩小
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bob:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> PCBView的右键菜单和左键拖动</t>
+    </r>
   </si>
   <si>
     <t>汇总:讲课+复习+小作业总共花去5天, 大作业3天, 一共是8天的计划</t>
@@ -502,6 +615,12 @@
   </si>
   <si>
     <t>2.在C++中使用QML对象</t>
+  </si>
+  <si>
+    <t>将Qt1中的形状(其实就是一个个MeasuredObj)封装成C++类</t>
+  </si>
+  <si>
+    <t>(1d)</t>
   </si>
   <si>
     <t xml:space="preserve">1.ListView
@@ -520,18 +639,152 @@
     2.将Model导出到QML中
     3.QML代码部分</t>
   </si>
+  <si>
+    <t>将Qt1中的Shape列表形状封装成C++中的Model使用</t>
+  </si>
+  <si>
+    <t>1.国际化</t>
+  </si>
+  <si>
+    <t>2.样式</t>
+  </si>
+  <si>
+    <t>(0.5d)</t>
+  </si>
+  <si>
+    <t>1.开始界面输入账户和密码，验证正确后进入登录界面，登录界面沿用之前小作业的，但是要做到所有的界面风格和语言一致，登录界面结束后进入主界面
+1.当前PCBView所有形状的信息都需要在右上角显示，如右图所示：
+    1.形状的选中状态在List也可以进行操作，同时选中状态能够更新到PCBView
+    2.双击List可以修改每一条记录的值，修改后PCBView也要发生相应的更新
+    3.左键单击记录右键菜单有删除选项，能够删除该条记录
+    4.List空白处右键菜单有添加按钮，添加初始坐标为PCBView的中心点，大小可以设死
+    5.通过PCBView对形状的任何操作都会更新到List
+2.初始数据来自sqlite数据库
+3.PCBView选中形状右键有删除/编辑，
+    1.编辑：状态样式类似与SPI，可以直接通过平移和拖动修改形状的位置和大小
+    2.删除：直接删除形状
+4.PCBView选中形状双击进入编辑状态
+5.任何时候数据按住ctrl+s保存数据到数据库
+6.界面的风格和语言可配置</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">任务分配:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>peter:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">整体界面，风格，布局，PCBView,形状和List的右键菜单设计
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>lynn:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>形状的编辑状态，拖放大小</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bob:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">List控件的所有逻辑
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>plato:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">sqlite数据的存取以及快捷键支持
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">grace: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开始界面，登录界面，主题和语言</t>
+    </r>
+  </si>
+  <si>
+    <t>汇总:讲课+复习+小作业总共花去3天, 大作业3天, 一共是6天的计划</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="30">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -584,7 +837,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -592,6 +845,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -605,13 +865,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -621,9 +874,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -637,14 +898,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -658,6 +927,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -668,7 +944,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -684,7 +967,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -698,33 +981,32 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="12"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="35">
@@ -748,13 +1030,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -778,7 +1060,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -790,49 +1180,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -845,84 +1205,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -945,8 +1227,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -954,23 +1236,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -999,17 +1266,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1029,13 +1292,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1044,121 +1326,121 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1170,26 +1452,26 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1197,23 +1479,23 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1226,17 +1508,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1250,17 +1529,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1352,7 +1628,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14685645" y="9773285"/>
-          <a:ext cx="6158230" cy="3124200"/>
+          <a:ext cx="6684645" cy="3124200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1368,16 +1644,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>176530</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>264795</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>866140</xdr:rowOff>
+      <xdr:rowOff>125095</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>472440</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>31115</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>1905000</xdr:rowOff>
+      <xdr:rowOff>1163955</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1394,7 +1670,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14681835" y="17623790"/>
+          <a:off x="17662525" y="16730345"/>
           <a:ext cx="2661920" cy="1038860"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1418,14 +1694,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>176530</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>866140</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>472440</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>1905000</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1442,8 +1718,51 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7729855" y="5346700"/>
-          <a:ext cx="1667510" cy="0"/>
+          <a:off x="12073255" y="5861050"/>
+          <a:ext cx="3791585" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2487930</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>809625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>572770</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>3317875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14384655" y="6499225"/>
+          <a:ext cx="5009515" cy="2508250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1721,7 +2040,7 @@
   <sheetPr/>
   <dimension ref="A1:I103"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A38" sqref="$A38:$XFD41"/>
     </sheetView>
   </sheetViews>
@@ -1911,7 +2230,7 @@
       <c r="D21" s="1">
         <v>2</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1924,11 +2243,11 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15" t="s">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="15"/>
+      <c r="C23" s="5"/>
       <c r="D23" s="6">
         <f>SUM(D2,D8,D14,D20,D21,D22)</f>
         <v>11</v>
@@ -2062,11 +2381,11 @@
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="15"/>
-      <c r="B41" s="15" t="s">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C41" s="15"/>
+      <c r="C41" s="5"/>
       <c r="D41" s="6">
         <f>SUM(D25,D32,D38,D39,D40)</f>
         <v>10</v>
@@ -2127,16 +2446,16 @@
       <c r="D49" s="1"/>
     </row>
     <row r="50" customFormat="1" spans="1:5">
-      <c r="A50" s="15"/>
-      <c r="B50" s="15" t="s">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C50" s="15"/>
+      <c r="C50" s="5"/>
       <c r="D50" s="6">
         <f>SUM(D43,D44,D48,D49)</f>
         <v>1.5</v>
       </c>
-      <c r="E50" s="15"/>
+      <c r="E50" s="5"/>
     </row>
     <row r="51" customFormat="1"/>
     <row r="52" spans="1:5">
@@ -2152,7 +2471,7 @@
       <c r="D52">
         <v>1</v>
       </c>
-      <c r="E52" s="14" t="s">
+      <c r="E52" s="3" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2204,13 +2523,13 @@
       <c r="A59" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B59" s="15"/>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
     </row>
     <row r="103" ht="283.5" spans="5:5">
-      <c r="E103" s="14" t="s">
+      <c r="E103" s="3" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2285,47 +2604,47 @@
     </row>
     <row r="3" ht="121.5" spans="1:5">
       <c r="A3" s="1"/>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
-      <c r="E3" s="20"/>
+      <c r="E3" s="12"/>
     </row>
     <row r="4" ht="81" spans="1:5">
       <c r="A4" s="1"/>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="3" t="s">
         <v>67</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" s="20"/>
+      <c r="E4" s="12"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1"/>
       <c r="B5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="14"/>
+      <c r="C5" s="3"/>
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5" s="20"/>
+      <c r="E5" s="12"/>
     </row>
     <row r="6" ht="175.5" spans="1:5">
       <c r="A6" s="1"/>
       <c r="B6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
-      <c r="E6" s="20"/>
+      <c r="E6" s="12"/>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" t="s">
@@ -2334,31 +2653,31 @@
       <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7" s="20"/>
+      <c r="E7" s="12"/>
     </row>
     <row r="8" customFormat="1" spans="1:5">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15" t="s">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="15"/>
+      <c r="C8" s="5"/>
       <c r="D8" s="6">
         <f>SUM(D2:D7)</f>
         <v>8</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="12" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="9" ht="12" customHeight="1" spans="1:5">
       <c r="A9" s="1"/>
-      <c r="C9" s="14"/>
-      <c r="E9" s="20"/>
+      <c r="C9" s="3"/>
+      <c r="E9" s="12"/>
     </row>
     <row r="10" ht="12" customHeight="1" spans="1:5">
       <c r="A10" s="1"/>
-      <c r="C10" s="14"/>
-      <c r="E10" s="20"/>
+      <c r="C10" s="3"/>
+      <c r="E10" s="12"/>
     </row>
     <row r="11" ht="54" spans="1:5">
       <c r="A11" s="1" t="s">
@@ -2367,22 +2686,22 @@
       <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
-      <c r="E11" s="20"/>
+      <c r="E11" s="12"/>
     </row>
     <row r="12" ht="67.5" spans="3:5">
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="3" t="s">
         <v>71</v>
       </c>
       <c r="D12">
         <v>2</v>
       </c>
-      <c r="E12" s="20"/>
+      <c r="E12" s="12"/>
     </row>
     <row r="13" spans="3:5">
       <c r="C13" t="s">
@@ -2391,7 +2710,7 @@
       <c r="D13">
         <v>1</v>
       </c>
-      <c r="E13" s="20"/>
+      <c r="E13" s="12"/>
     </row>
     <row r="14" spans="3:5">
       <c r="C14" t="s">
@@ -2400,31 +2719,31 @@
       <c r="D14">
         <v>1</v>
       </c>
-      <c r="E14" s="20"/>
+      <c r="E14" s="12"/>
     </row>
     <row r="15" customFormat="1" spans="1:5">
       <c r="A15" s="1"/>
       <c r="B15" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="14"/>
+      <c r="C15" s="3"/>
       <c r="D15">
         <v>1</v>
       </c>
-      <c r="E15" s="20"/>
+      <c r="E15" s="12"/>
     </row>
     <row r="16" customFormat="1" ht="40.5" spans="1:5">
       <c r="A16" s="1"/>
       <c r="B16" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="3" t="s">
         <v>74</v>
       </c>
       <c r="D16">
         <v>2</v>
       </c>
-      <c r="E16" s="20"/>
+      <c r="E16" s="12"/>
     </row>
     <row r="17" customFormat="1" spans="2:5">
       <c r="B17" t="s">
@@ -2433,24 +2752,24 @@
       <c r="D17">
         <v>1</v>
       </c>
-      <c r="E17" s="20"/>
+      <c r="E17" s="12"/>
     </row>
     <row r="18" customFormat="1" spans="1:5">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15" t="s">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="15"/>
+      <c r="C18" s="5"/>
       <c r="D18" s="6">
         <f>SUM(D11:D17)</f>
         <v>10</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="12" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="19" spans="5:5">
-      <c r="E19" s="20"/>
+      <c r="E19" s="12"/>
     </row>
     <row r="20" customFormat="1" ht="67.5" spans="1:5">
       <c r="A20" s="1" t="s">
@@ -2459,64 +2778,64 @@
       <c r="B20" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="3" t="s">
         <v>76</v>
       </c>
       <c r="D20">
         <v>2</v>
       </c>
-      <c r="E20" s="20"/>
+      <c r="E20" s="12"/>
     </row>
     <row r="21" customFormat="1" ht="67.5" spans="3:5">
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D21">
         <v>2</v>
       </c>
-      <c r="E21" s="20"/>
+      <c r="E21" s="12"/>
     </row>
     <row r="22" customFormat="1" ht="54" spans="3:5">
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
-      <c r="E22" s="20"/>
+      <c r="E22" s="12"/>
     </row>
     <row r="23" customFormat="1" ht="52" customHeight="1" spans="3:5">
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="3" t="s">
         <v>79</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
-      <c r="E23" s="20"/>
+      <c r="E23" s="12"/>
     </row>
     <row r="24" customFormat="1" spans="1:5">
       <c r="A24" s="1"/>
       <c r="B24" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="14"/>
+      <c r="C24" s="3"/>
       <c r="D24">
         <v>1</v>
       </c>
-      <c r="E24" s="20"/>
+      <c r="E24" s="12"/>
     </row>
     <row r="25" customFormat="1" ht="40.5" spans="1:5">
       <c r="A25" s="1"/>
       <c r="B25" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="3" t="s">
         <v>80</v>
       </c>
       <c r="D25">
         <v>2</v>
       </c>
-      <c r="E25" s="20"/>
+      <c r="E25" s="12"/>
     </row>
     <row r="26" customFormat="1" spans="2:5">
       <c r="B26" t="s">
@@ -2525,26 +2844,26 @@
       <c r="D26">
         <v>1</v>
       </c>
-      <c r="E26" s="20"/>
+      <c r="E26" s="12"/>
     </row>
     <row r="27" customFormat="1" spans="1:5">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15" t="s">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="15"/>
+      <c r="C27" s="5"/>
       <c r="D27" s="6">
         <f>SUM(D19:D26)</f>
         <v>10</v>
       </c>
-      <c r="E27" s="20" t="s">
+      <c r="E27" s="12" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="1:5">
       <c r="A28" s="1"/>
-      <c r="C28" s="14"/>
-      <c r="E28" s="20"/>
+      <c r="C28" s="3"/>
+      <c r="E28" s="12"/>
     </row>
     <row r="29" customFormat="1" ht="40.5" spans="1:5">
       <c r="A29" s="1" t="s">
@@ -2553,60 +2872,60 @@
       <c r="B29" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="3" t="s">
         <v>82</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
-      <c r="E29" s="20"/>
+      <c r="E29" s="12"/>
     </row>
     <row r="30" customFormat="1" spans="1:5">
       <c r="A30" s="1"/>
-      <c r="C30" s="14"/>
-      <c r="E30" s="20"/>
+      <c r="C30" s="3"/>
+      <c r="E30" s="12"/>
     </row>
     <row r="31" customFormat="1" spans="3:5">
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="3" t="s">
         <v>83</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
-      <c r="E31" s="20"/>
+      <c r="E31" s="12"/>
     </row>
     <row r="32" customFormat="1" spans="1:5">
       <c r="A32" s="1"/>
       <c r="B32" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="14"/>
+      <c r="C32" s="3"/>
       <c r="D32">
         <v>1</v>
       </c>
-      <c r="E32" s="20"/>
+      <c r="E32" s="12"/>
     </row>
     <row r="33" customFormat="1" ht="27" spans="1:5">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15" t="s">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="15"/>
+      <c r="C33" s="5"/>
       <c r="D33" s="6">
         <f>SUM(D29:D32)</f>
         <v>3</v>
       </c>
-      <c r="E33" s="21" t="s">
+      <c r="E33" s="19" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="34" customFormat="1" spans="1:3">
       <c r="A34" s="1"/>
-      <c r="C34" s="14"/>
+      <c r="C34" s="3"/>
     </row>
     <row r="35" customFormat="1" spans="1:3">
       <c r="A35" s="1"/>
-      <c r="C35" s="14"/>
+      <c r="C35" s="3"/>
     </row>
     <row r="36" customFormat="1" spans="1:5">
       <c r="A36" s="8" t="s">
@@ -2621,7 +2940,7 @@
       <c r="D36">
         <v>1</v>
       </c>
-      <c r="E36" s="14" t="s">
+      <c r="E36" s="3" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2670,7 +2989,7 @@
         <f>SUM(D36,D37,D38,D40,D39)</f>
         <v>22</v>
       </c>
-      <c r="E41" s="23" t="s">
+      <c r="E41" s="14" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2682,22 +3001,22 @@
       <c r="A43" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1"/>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="20"/>
+      <c r="A72" s="12"/>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1"/>
     </row>
     <row r="81" spans="1:1">
-      <c r="A81" s="24"/>
+      <c r="A81" s="22"/>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="8"/>
@@ -2719,8 +3038,8 @@
   <sheetPr/>
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A31" sqref="$A31:$XFD39"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2728,7 +3047,7 @@
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="70.75" customWidth="1"/>
     <col min="5" max="5" width="81.6083333333333" customWidth="1"/>
-    <col min="6" max="6" width="22.05" customWidth="1"/>
+    <col min="6" max="6" width="28.9583333333333" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2759,7 +3078,7 @@
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="3" t="s">
         <v>89</v>
       </c>
       <c r="D2">
@@ -2777,17 +3096,17 @@
     </row>
     <row r="3" customFormat="1" ht="148.5" spans="1:5">
       <c r="A3" s="1"/>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="3" t="s">
         <v>90</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
-      <c r="E3" s="20"/>
+      <c r="E3" s="12"/>
     </row>
     <row r="4" customFormat="1" ht="148.5" spans="1:4">
       <c r="A4" s="1"/>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D4">
@@ -2796,35 +3115,35 @@
     </row>
     <row r="5" customFormat="1" ht="67.5" spans="1:5">
       <c r="A5" s="1"/>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="3" t="s">
         <v>92</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
-      <c r="E5" s="20"/>
+      <c r="E5" s="12"/>
     </row>
     <row r="6" customFormat="1" spans="1:5">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="14"/>
+      <c r="C6" s="3"/>
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6" s="20"/>
+      <c r="E6" s="12"/>
     </row>
     <row r="7" customFormat="1" spans="1:5">
       <c r="A7" s="1"/>
       <c r="B7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="14"/>
+      <c r="C7" s="3"/>
       <c r="D7">
         <v>4</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="12" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2835,31 +3154,31 @@
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8" s="20"/>
+      <c r="E8" s="12"/>
     </row>
     <row r="9" customFormat="1" spans="1:5">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15" t="s">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="15"/>
+      <c r="C9" s="5"/>
       <c r="D9" s="6">
         <f>SUM(D2:D8)</f>
         <v>12</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="12" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="10" customFormat="1" ht="12" customHeight="1" spans="1:5">
       <c r="A10" s="1"/>
-      <c r="C10" s="14"/>
-      <c r="E10" s="20"/>
+      <c r="C10" s="3"/>
+      <c r="E10" s="12"/>
     </row>
     <row r="11" customFormat="1" ht="12" customHeight="1" spans="1:5">
       <c r="A11" s="1"/>
-      <c r="C11" s="14"/>
-      <c r="E11" s="20"/>
+      <c r="C11" s="3"/>
+      <c r="E11" s="12"/>
     </row>
     <row r="12" customFormat="1" spans="1:5">
       <c r="A12" s="1" t="s">
@@ -2868,30 +3187,30 @@
       <c r="B12" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="3" t="s">
         <v>94</v>
       </c>
       <c r="D12">
         <v>3</v>
       </c>
-      <c r="E12" s="20"/>
+      <c r="E12" s="12"/>
     </row>
     <row r="13" customFormat="1" spans="1:5">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15" t="s">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="15"/>
+      <c r="C13" s="5"/>
       <c r="D13" s="6">
         <f>SUM(D12:D12)</f>
         <v>3</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="12" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="5:5">
-      <c r="E14" s="20"/>
+      <c r="E14" s="12"/>
     </row>
     <row r="15" customFormat="1" ht="67.5" spans="1:5">
       <c r="A15" s="1" t="s">
@@ -2900,53 +3219,53 @@
       <c r="B15" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="3" t="s">
         <v>96</v>
       </c>
       <c r="D15">
         <v>3</v>
       </c>
-      <c r="E15" s="20"/>
+      <c r="E15" s="12"/>
     </row>
     <row r="16" customFormat="1" ht="54" spans="3:5">
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="3" t="s">
         <v>97</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
-      <c r="E16" s="20"/>
+      <c r="E16" s="12"/>
     </row>
     <row r="17" customFormat="1" ht="67.5" spans="3:5">
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="3" t="s">
         <v>98</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
-      <c r="E17" s="20"/>
+      <c r="E17" s="12"/>
     </row>
     <row r="18" customFormat="1" spans="1:5">
       <c r="A18" s="1"/>
       <c r="B18" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="14"/>
+      <c r="C18" s="3"/>
       <c r="D18">
         <v>1</v>
       </c>
-      <c r="E18" s="20"/>
+      <c r="E18" s="12"/>
     </row>
     <row r="19" customFormat="1" ht="254" customHeight="1" spans="1:5">
       <c r="A19" s="1"/>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="18">
+      <c r="C19" s="16"/>
+      <c r="D19" s="17">
         <v>5</v>
       </c>
-      <c r="E19" s="21" t="s">
+      <c r="E19" s="19" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2957,25 +3276,25 @@
       <c r="D20">
         <v>1</v>
       </c>
-      <c r="E20" s="20"/>
+      <c r="E20" s="12"/>
     </row>
     <row r="21" customFormat="1" spans="1:5">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15" t="s">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="15"/>
+      <c r="C21" s="5"/>
       <c r="D21" s="6">
         <f>SUM(D15:D20)</f>
         <v>12</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="12" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="1:3">
       <c r="A22" s="1"/>
-      <c r="C22" s="14"/>
+      <c r="C22" s="3"/>
     </row>
     <row r="23" customFormat="1" ht="54" spans="1:5">
       <c r="A23" s="1" t="s">
@@ -2984,17 +3303,17 @@
       <c r="B23" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="3" t="s">
         <v>100</v>
       </c>
       <c r="D23">
         <v>2</v>
       </c>
-      <c r="E23" s="21"/>
+      <c r="E23" s="19"/>
     </row>
     <row r="24" customFormat="1" ht="81" spans="1:4">
       <c r="A24" s="1"/>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="3" t="s">
         <v>101</v>
       </c>
       <c r="D24">
@@ -3006,22 +3325,22 @@
       <c r="B25" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="14"/>
+      <c r="C25" s="3"/>
       <c r="D25">
         <v>1</v>
       </c>
-      <c r="E25" s="20"/>
-    </row>
-    <row r="26" customFormat="1" ht="56" customHeight="1" spans="1:5">
-      <c r="A26" s="19"/>
-      <c r="B26" s="16" t="s">
+      <c r="E25" s="12"/>
+    </row>
+    <row r="26" customFormat="1" ht="44" customHeight="1" spans="1:5">
+      <c r="A26" s="18"/>
+      <c r="B26" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="17"/>
-      <c r="D26" s="18">
+      <c r="C26" s="16"/>
+      <c r="D26" s="17">
         <v>5</v>
       </c>
-      <c r="E26" s="22" t="s">
+      <c r="E26" s="20" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3032,29 +3351,29 @@
       <c r="D27">
         <v>1</v>
       </c>
-      <c r="E27" s="20"/>
+      <c r="E27" s="12"/>
     </row>
     <row r="28" customFormat="1" spans="1:5">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15" t="s">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="15"/>
+      <c r="C28" s="5"/>
       <c r="D28" s="6">
         <f>SUM(D23:D27)</f>
         <v>11</v>
       </c>
-      <c r="E28" s="20" t="s">
+      <c r="E28" s="12" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="29" customFormat="1" spans="5:5">
-      <c r="E29" s="20"/>
+      <c r="E29" s="12"/>
     </row>
     <row r="30" customFormat="1" spans="5:5">
-      <c r="E30" s="20"/>
-    </row>
-    <row r="31" customFormat="1" ht="405" spans="1:5">
+      <c r="E30" s="12"/>
+    </row>
+    <row r="31" customFormat="1" ht="202" customHeight="1" spans="1:6">
       <c r="A31" s="8" t="s">
         <v>54</v>
       </c>
@@ -3067,8 +3386,11 @@
       <c r="D31">
         <v>1</v>
       </c>
-      <c r="E31" s="14" t="s">
+      <c r="E31" s="21" t="s">
         <v>104</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="32" customFormat="1" spans="1:5">
@@ -3079,7 +3401,7 @@
       <c r="D32">
         <v>16</v>
       </c>
-      <c r="E32" s="14"/>
+      <c r="E32" s="3"/>
     </row>
     <row r="33" customFormat="1" spans="1:4">
       <c r="A33" s="8"/>
@@ -3117,14 +3439,14 @@
         <f>SUM(D31:D35)</f>
         <v>22</v>
       </c>
-      <c r="E36" s="23" t="s">
+      <c r="E36" s="14" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="37" customFormat="1" spans="1:5">
       <c r="A37" s="8"/>
       <c r="D37" s="9"/>
-      <c r="E37" s="23"/>
+      <c r="E37" s="14"/>
     </row>
     <row r="38" customFormat="1" spans="1:4">
       <c r="A38" s="8"/>
@@ -3132,12 +3454,12 @@
     </row>
     <row r="39" customFormat="1" spans="1:5">
       <c r="A39" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
+        <v>106</v>
+      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -3150,16 +3472,18 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="25.5" customWidth="1"/>
     <col min="3" max="3" width="46.625" customWidth="1"/>
+    <col min="5" max="5" width="66" customWidth="1"/>
+    <col min="6" max="6" width="36.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="3:8">
@@ -3182,247 +3506,294 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="54" spans="1:8">
+    <row r="2" customFormat="1" ht="54" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>106</v>
+      <c r="B2" t="s">
+        <v>107</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D2" s="2">
+        <v>108</v>
+      </c>
+      <c r="D2">
         <v>2</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:4">
+    <row r="3" customFormat="1" spans="1:4">
       <c r="A3" s="1"/>
       <c r="C3" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" s="2" customFormat="1" spans="2:4">
-      <c r="B4" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="2:4">
+      <c r="B4" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="2"/>
       <c r="D4" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="2:9">
+    <row r="5" customFormat="1" spans="2:9">
       <c r="B5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="2"/>
       <c r="D5" s="1">
-        <v>2</v>
-      </c>
-      <c r="E5" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>110</v>
+      </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" s="2" customFormat="1" spans="2:4">
-      <c r="B6" s="2" t="s">
+    <row r="6" customFormat="1" spans="2:4">
+      <c r="B6" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="2"/>
       <c r="D6" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" spans="4:4">
+    <row r="7" customFormat="1" spans="4:4">
       <c r="D7" s="1"/>
     </row>
-    <row r="8" s="2" customFormat="1" spans="1:5">
+    <row r="8" customFormat="1" spans="1:5">
       <c r="A8" s="5"/>
       <c r="B8" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+      <c r="D8" s="6">
+        <f>SUM(D2:D6)</f>
+        <v>9</v>
+      </c>
       <c r="E8" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" s="2" customFormat="1" ht="12" customHeight="1" spans="1:5">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" ht="12" customHeight="1" spans="1:5">
       <c r="A9" s="1"/>
       <c r="C9" s="3"/>
       <c r="E9" s="12"/>
     </row>
-    <row r="10" s="2" customFormat="1" ht="12" customHeight="1" spans="1:5">
+    <row r="10" customFormat="1" ht="12" customHeight="1" spans="1:5">
       <c r="A10" s="1"/>
       <c r="C10" s="3"/>
       <c r="E10" s="12"/>
     </row>
-    <row r="11" s="2" customFormat="1" ht="73" customHeight="1" spans="1:5">
+    <row r="11" customFormat="1" ht="73" customHeight="1" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D11" s="2">
-        <v>2</v>
+        <v>112</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
       </c>
       <c r="E11" s="12"/>
     </row>
     <row r="12" spans="3:4">
       <c r="C12" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D12">
         <v>0.5</v>
       </c>
     </row>
     <row r="13" ht="54" spans="3:4">
-      <c r="C13" s="7" t="s">
-        <v>111</v>
+      <c r="C13" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="D13">
         <v>2</v>
       </c>
     </row>
-    <row r="15" s="2" customFormat="1" spans="2:4">
-      <c r="B15" s="2" t="s">
+    <row r="14" customFormat="1" spans="2:4">
+      <c r="B14" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="2"/>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="2:9">
+      <c r="B15" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="D15" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" s="2" customFormat="1" spans="2:9">
-      <c r="B16" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" customFormat="1" spans="2:4">
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
       <c r="D16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" spans="4:4">
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" customFormat="1" spans="1:5">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="6">
+        <f>SUM(D11:D16)</f>
+        <v>9.5</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" spans="1:4">
+      <c r="A20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>116</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" spans="1:4">
+      <c r="A21" s="1"/>
+      <c r="C21" t="s">
+        <v>117</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" s="2" customFormat="1" spans="1:5">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="6">
+        <f>SUM(D20:D21)</f>
         <v>2</v>
       </c>
-      <c r="E16" s="11"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" s="2" customFormat="1" spans="2:4">
-      <c r="B17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" s="2" customFormat="1" spans="4:4">
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" s="2" customFormat="1" spans="1:5">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5" t="s">
+      <c r="E22" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1"/>
+    <row r="24" customFormat="1" ht="351" spans="1:6">
+      <c r="A24" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" customFormat="1" spans="1:5">
+      <c r="A25" s="8"/>
+      <c r="C25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25">
+        <v>16</v>
+      </c>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" customFormat="1" spans="1:4">
+      <c r="A26" s="8"/>
+      <c r="C26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" customFormat="1" spans="1:4">
+      <c r="A27" s="8"/>
+      <c r="C27" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" customFormat="1" spans="1:4">
+      <c r="A28" s="8"/>
+      <c r="C28" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" customFormat="1" spans="1:5">
+      <c r="A29" s="8"/>
+      <c r="B29" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" s="2" customFormat="1" spans="1:5">
-      <c r="A21" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="2">
-        <v>1</v>
-      </c>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" s="2" customFormat="1" spans="1:5">
-      <c r="A22" s="8"/>
-      <c r="C22" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" s="2">
-        <v>16</v>
-      </c>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" s="2" customFormat="1" spans="1:4">
-      <c r="A23" s="8"/>
-      <c r="C23" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" s="2" customFormat="1" spans="1:4">
-      <c r="A24" s="8"/>
-      <c r="C24" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" s="2" customFormat="1" spans="1:4">
-      <c r="A25" s="8"/>
-      <c r="C25" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" s="2" customFormat="1" spans="1:5">
-      <c r="A26" s="8"/>
-      <c r="B26" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" s="6">
-        <f>SUM(D21:D25)</f>
+      <c r="D29" s="6">
+        <f>SUM(D24:D28)</f>
         <v>22</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="E29" s="14" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="27" s="2" customFormat="1" spans="1:5">
-      <c r="A27" s="8"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="13"/>
-    </row>
-    <row r="28" s="2" customFormat="1" spans="1:4">
-      <c r="A28" s="8"/>
-      <c r="D28" s="10"/>
-    </row>
-    <row r="29" s="2" customFormat="1" spans="1:5">
-      <c r="A29" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
+    <row r="30" customFormat="1" spans="1:5">
+      <c r="A30" s="8"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="14"/>
+    </row>
+    <row r="31" customFormat="1" spans="1:4">
+      <c r="A31" s="8"/>
+      <c r="D31" s="10"/>
+    </row>
+    <row r="32" customFormat="1" spans="1:5">
+      <c r="A32" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/CPlusPlus/相关资料/c++培训课纲.xlsx
+++ b/CPlusPlus/相关资料/c++培训课纲.xlsx
@@ -4,20 +4,25 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12450" activeTab="3"/>
+    <workbookView windowWidth="28695" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="1.class" sheetId="1" r:id="rId1"/>
     <sheet name="2.数据操作" sheetId="2" r:id="rId2"/>
     <sheet name="3.Qt1" sheetId="3" r:id="rId3"/>
     <sheet name="4.Qt2" sheetId="4" r:id="rId4"/>
+    <sheet name="5.作用域" sheetId="5" r:id="rId5"/>
+    <sheet name="5.内存管理" sheetId="6" r:id="rId6"/>
+    <sheet name="6.模板" sheetId="7" r:id="rId7"/>
+    <sheet name="7.其它扩展知识点" sheetId="8" r:id="rId8"/>
+    <sheet name="8.大作业" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127">
   <si>
     <t>内容</t>
   </si>
@@ -158,6 +163,72 @@
   </si>
   <si>
     <t xml:space="preserve">   2.4 虚析构函数</t>
+  </si>
+  <si>
+    <r>
+      <t>实现一个公司员工的薪水管理系统,具体要求如下:
+1.员工有销售,工程师, 行政和经理 4个职位
+2.员工的基本信息有id,名称,性别,就职时间,单月薪水
+3.员工的薪水基本计算如下:
+  1.基本工资工作月份*每月薪水
+  2.工程师的薪水为基本工资+奖金
+  3.销售的薪水为基本工资+销售额*提成
+  4.经理的薪水为基本工资+销售额*提成+奖金
+5.部门,基本信息有名称和员工列表
+6.公司信息,基本信息和部门列表,名称和销售额
+流程:
+1.自动生成10个员工,1个经理,2个行政,3个工程师和4个销售,基本工资如下:
+   经理:2w-3w 奖金10w/年 提成5%
+   行政:5k-6k
+   工程师:5K-1W,奖金2w/年
+   销售:3K 提成5%
+  id按照时间生成,工作月份从1-36随机生成
+2.把所有相同职位的员工并为一个部门,使用</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"+="运算符重载
+3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>计算并打印打印出所有员工的薪水总和
+4.打印出每个部门的员工的薪水情况
+5.按性别打印出所有员工的薪水情况
+6.移除公司的经理,使用</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>深复制</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">创建一个新的经理加入,但是id通过当前时间生成,工作年份为原来的为1
+7.打印出当前工资最高的员工
+   </t>
+    </r>
   </si>
   <si>
     <t>1.实现一个Board类,有以下基本属性:
@@ -272,7 +343,21 @@
     3.5 条件编译</t>
   </si>
   <si>
-    <t>1.在Alg3D中增加变量:
+    <t>1.随机生成5000个float数组，长度从2048到4000随机生成，数据范围从0.00-5000.00随机生成(单位um)
+2.配置文件读取以下参数，这些参数后续保护不能修改:
+     1.最小高度,最大高度(来自与配置文件)
+     2.标准高度,面积,体积以及高度,面积,体积的上下限(来自与配置文件)
+     3.标准体积(由标准面积和标准高度计算而来)
+3.计算每一个点的高度，体积，面积：
+     1.面积(高度数组中满足高度最大值和高度最小值的点的数量)
+     2.平均高度(有效像素点的平均高度)
+     3.体积为所有有效高度的累加和
+4.在计算出结果以后判断高度,面积,体积（检测结果无法修改）是否在设定范围内决定是否NG
+5.输出整个过程的消耗时间</t>
+  </si>
+  <si>
+    <t>备选
+1.在Alg3D中增加变量:
      1.最小高度,最大高度(来自与配置文件)
      2.标准高度,面积,体积以及高度,面积,体积的上下限(来自与配置文件)
      3.标准体积(由标准面积和标准高度计算而来)
@@ -347,9 +432,6 @@
     <t>1.容器汇总
     1.容器汇总
     2.如何选择容器</t>
-  </si>
-  <si>
-    <t>2.其他注意事项</t>
   </si>
   <si>
     <t>0.5d
@@ -440,7 +522,6 @@
 1.界面分2分Tab，Main界面如上图所示(分为PCBView,List,Equipment,Lot四个片区)，Setting界面空白即可
 2.PCBView上显示一副图片
 3.PCBView的PreView上显示图片缩略图，默认状态下PreView显示，点击右边三角形消失，再点击弹出
-4.支持Material Design双主题
 </t>
   </si>
   <si>
@@ -467,6 +548,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>1.PCBView在背景图片上绘制形状（支持圆形和矩形），一开始随机随机绘制5个形状
 2.PCBView放大，缩小，拖动的时候绘制的形状也同步发生变化
 3.形状有3重状态:
@@ -499,6 +586,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -508,6 +596,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">任务分配:
 </t>
     </r>
@@ -516,6 +610,7 @@
         <b/>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>peter:</t>
@@ -524,6 +619,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">整体界面，风格，布局
@@ -534,6 +630,7 @@
         <b/>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>lynn:</t>
@@ -542,6 +639,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">浮动的形状选择控件
@@ -552,6 +650,7 @@
         <b/>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>grace:</t>
@@ -560,6 +659,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">形状的选中/删除/添加
@@ -570,6 +670,7 @@
         <b/>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>plato:</t>
@@ -578,6 +679,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">数据的生成，形状的绘制，PCBView的滚轮的放大缩小
@@ -588,6 +690,7 @@
         <b/>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>bob:</t>
@@ -596,6 +699,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> PCBView的右键菜单和左键拖动</t>
@@ -617,7 +721,7 @@
     <t>2.在C++中使用QML对象</t>
   </si>
   <si>
-    <t>将Qt1中的形状(其实就是一个个MeasuredObj)封装成C++类</t>
+    <t>使用一个ComboBox绑定一个C++类的Enum</t>
   </si>
   <si>
     <t>(1d)</t>
@@ -640,7 +744,10 @@
     3.QML代码部分</t>
   </si>
   <si>
-    <t>将Qt1中的Shape列表形状封装成C++中的Model使用</t>
+    <t>将Qt1中的Shape列表形状封装成C++中的Model使用
+备份作业: 使用一个ListView绑定C++的Model，数据结构如下之前的Shape:
+   x,y,width,height,ShapeType
+并使用一个列表显示出来</t>
   </si>
   <si>
     <t>1.国际化</t>
@@ -652,23 +759,146 @@
     <t>(0.5d)</t>
   </si>
   <si>
-    <t>1.开始界面输入账户和密码，验证正确后进入登录界面，登录界面沿用之前小作业的，但是要做到所有的界面风格和语言一致，登录界面结束后进入主界面
-1.当前PCBView所有形状的信息都需要在右上角显示，如右图所示：
-    1.形状的选中状态在List也可以进行操作，同时选中状态能够更新到PCBView
-    2.双击List可以修改每一条记录的值，修改后PCBView也要发生相应的更新
-    3.左键单击记录右键菜单有删除选项，能够删除该条记录
-    4.List空白处右键菜单有添加按钮，添加初始坐标为PCBView的中心点，大小可以设死
-    5.通过PCBView对形状的任何操作都会更新到List
-2.初始数据来自sqlite数据库
-3.PCBView选中形状右键有删除/编辑，
-    1.编辑：状态样式类似与SPI，可以直接通过平移和拖动修改形状的位置和大小
-    2.删除：直接删除形状
-4.PCBView选中形状双击进入编辑状态
-5.任何时候数据按住ctrl+s保存数据到数据库
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1.开始界面输入账户和密码，验证正确后进入登录界面，登录界面沿用之前小作业的，但是要做到所有的界面风格和语言一致，登录界面结束后进入主界面
+2.当前PCBView所有形状的信息都需要在右上角的List显示
+    1.形状的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>选中状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在List也可以进行操作，同时选中状态能够更新到PCBView
+    2.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>双击</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>List可以</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>删除</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>每一条记录，修改后PCBView也要发生相应的更新
+    3.List空白处右键菜单有</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>添加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>按钮，添加初始坐标为PCBView的中心点，大小可以设死，形状通过ShapePicker选择
+3.初始数据来自sqlite数据库，如果没有请初始生成
+4.PCBView</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>双击</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>形状删除，List也进行相应的更新
+5.任何时候数据按住</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ctrl+s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>保存数据到数据库
 6.界面的风格和语言可配置</t>
-  </si>
-  <si>
-    <r>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">任务分配:
 </t>
     </r>
@@ -677,6 +907,7 @@
         <b/>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>peter:</t>
@@ -685,9 +916,19 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">整体界面，风格，布局，PCBView,形状和List的右键菜单设计
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>登录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">界面，启动界面，风格，布局，PCBView
 </t>
     </r>
     <r>
@@ -695,6 +936,7 @@
         <b/>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>lynn:</t>
@@ -703,15 +945,26 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>形状的编辑状态，拖放大小</t>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>形状的编辑状态，拖放大小，所有的形状绘制和渲染，包括右键菜单，绘制使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>C++代码</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -722,6 +975,7 @@
         <b/>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>bob:</t>
@@ -730,9 +984,28 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">List控件的所有逻辑
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>List控件的所有逻辑，包括右键菜单，数据使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>C++的model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -740,6 +1013,7 @@
         <b/>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>plato:</t>
@@ -748,9 +1022,10 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">sqlite数据的存取以及快捷键支持
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">sqlite数据的存取以及快捷键保存支持
 </t>
     </r>
     <r>
@@ -758,6 +1033,7 @@
         <b/>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">grace: </t>
@@ -765,13 +1041,26 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <charset val="134"/>
-      </rPr>
-      <t>开始界面，登录界面，主题和语言</t>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主题和语言，可以通过配置文件设置，支持运行时修改</t>
     </r>
   </si>
   <si>
     <t>汇总:讲课+复习+小作业总共花去3天, 大作业3天, 一共是6天的计划</t>
+  </si>
+  <si>
+    <t>1.namespace</t>
+  </si>
+  <si>
+    <t>1.new/delete new[]/delete[]</t>
+  </si>
+  <si>
+    <t>2.RAII</t>
+  </si>
+  <si>
+    <t>3.智能指针 [重点]</t>
   </si>
 </sst>
 </file>
@@ -779,12 +1068,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="29">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -802,17 +1091,16 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -834,6 +1122,7 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -850,24 +1139,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -881,10 +1162,25 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -897,10 +1193,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -912,18 +1208,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -934,9 +1231,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -958,33 +1254,18 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -993,18 +1274,16 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1036,19 +1315,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1066,13 +1393,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1084,37 +1405,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1132,25 +1441,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1162,55 +1483,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1237,6 +1516,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1261,17 +1551,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1292,6 +1571,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1306,162 +1600,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1471,75 +1750,69 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1718,8 +1991,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12073255" y="5861050"/>
-          <a:ext cx="3791585" cy="0"/>
+          <a:off x="12073255" y="6546850"/>
+          <a:ext cx="4182110" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1736,15 +2009,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>2487930</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>809625</xdr:rowOff>
+      <xdr:colOff>276860</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>158115</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>572770</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>3317875</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2477770</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>60325</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1761,8 +2034,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14384655" y="6499225"/>
-          <a:ext cx="5009515" cy="2508250"/>
+          <a:off x="12173585" y="4133215"/>
+          <a:ext cx="2200910" cy="1102360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2040,14 +2313,14 @@
   <sheetPr/>
   <dimension ref="A1:I103"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A38" sqref="$A38:$XFD41"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="17.125" customWidth="1"/>
-    <col min="3" max="3" width="37.25" customWidth="1"/>
+    <col min="3" max="3" width="44.625" customWidth="1"/>
     <col min="5" max="5" width="102.625" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
     <col min="7" max="7" width="15.875" customWidth="1"/>
@@ -2224,13 +2497,13 @@
       </c>
     </row>
     <row r="21" ht="94.5" spans="2:5">
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D21" s="1">
         <v>2</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="6" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2243,16 +2516,16 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5" t="s">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6">
+      <c r="C23" s="3"/>
+      <c r="D23" s="4">
         <f>SUM(D2,D8,D14,D20,D21,D22)</f>
         <v>11</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="4" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2360,15 +2633,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" ht="351" spans="2:9">
-      <c r="B39" s="4" t="s">
+    <row r="39" ht="409.5" spans="2:9">
+      <c r="B39" s="2" t="s">
         <v>28</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>45</v>
       </c>
       <c r="D39" s="1">
         <v>2</v>
       </c>
-      <c r="E39" s="11" t="s">
-        <v>45</v>
+      <c r="E39" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="I39" s="1"/>
     </row>
@@ -2376,44 +2652,47 @@
       <c r="B40" t="s">
         <v>30</v>
       </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
       <c r="D40" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5" t="s">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="6">
+      <c r="C41" s="3"/>
+      <c r="D41" s="4">
         <f>SUM(D25,D32,D38,D39,D40)</f>
         <v>10</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="E41" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B43" t="s">
         <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D43">
         <v>0.5</v>
       </c>
       <c r="E43" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="3:4">
       <c r="C44" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D44">
         <v>0.5</v>
@@ -2421,22 +2700,22 @@
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="3:4">
       <c r="C48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D48">
         <v>0.5</v>
@@ -2446,38 +2725,38 @@
       <c r="D49" s="1"/>
     </row>
     <row r="50" customFormat="1" spans="1:5">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5" t="s">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C50" s="5"/>
-      <c r="D50" s="6">
+      <c r="C50" s="3"/>
+      <c r="D50" s="4">
         <f>SUM(D43,D44,D48,D49)</f>
         <v>1.5</v>
       </c>
-      <c r="E50" s="5"/>
+      <c r="E50" s="3"/>
     </row>
     <row r="51" customFormat="1"/>
     <row r="52" spans="1:5">
       <c r="A52" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C52" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D52">
         <v>1</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>57</v>
+      <c r="E52" s="6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="3:4">
       <c r="C53" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D53">
         <v>20</v>
@@ -2485,7 +2764,7 @@
     </row>
     <row r="54" spans="3:4">
       <c r="C54" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D54">
         <v>2</v>
@@ -2493,7 +2772,7 @@
     </row>
     <row r="55" spans="3:4">
       <c r="C55" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D55">
         <v>3</v>
@@ -2501,7 +2780,7 @@
     </row>
     <row r="56" spans="3:4">
       <c r="C56" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -2511,26 +2790,26 @@
       <c r="B57" t="s">
         <v>31</v>
       </c>
-      <c r="D57" s="6">
+      <c r="D57" s="4">
         <f>SUM(D52,D53,D54,D56,D55)</f>
         <v>27</v>
       </c>
       <c r="E57" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
+      <c r="A59" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
     </row>
     <row r="103" ht="283.5" spans="5:5">
-      <c r="E103" s="3" t="s">
-        <v>64</v>
+      <c r="E103" s="6" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2543,10 +2822,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H125"/>
+  <dimension ref="A1:H124"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2587,7 +2866,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -2604,47 +2883,49 @@
     </row>
     <row r="3" ht="121.5" spans="1:5">
       <c r="A3" s="1"/>
-      <c r="C3" s="3" t="s">
-        <v>66</v>
+      <c r="C3" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
-      <c r="E3" s="12"/>
+      <c r="E3" s="7"/>
     </row>
     <row r="4" ht="81" spans="1:5">
       <c r="A4" s="1"/>
-      <c r="C4" s="3" t="s">
-        <v>67</v>
+      <c r="C4" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" s="12"/>
+      <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1"/>
       <c r="B5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="6"/>
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5" s="12"/>
-    </row>
-    <row r="6" ht="175.5" spans="1:5">
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" ht="243" spans="1:5">
       <c r="A6" s="1"/>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>68</v>
+      <c r="C6" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
-      <c r="E6" s="12"/>
+      <c r="E6" s="6" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" t="s">
@@ -2653,31 +2934,31 @@
       <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7" s="12"/>
+      <c r="E7" s="7"/>
     </row>
     <row r="8" customFormat="1" spans="1:5">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5" t="s">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6">
+      <c r="C8" s="3"/>
+      <c r="D8" s="4">
         <f>SUM(D2:D7)</f>
         <v>8</v>
       </c>
-      <c r="E8" s="12" t="s">
-        <v>69</v>
+      <c r="E8" s="7" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="9" ht="12" customHeight="1" spans="1:5">
       <c r="A9" s="1"/>
-      <c r="C9" s="3"/>
-      <c r="E9" s="12"/>
+      <c r="C9" s="6"/>
+      <c r="E9" s="7"/>
     </row>
     <row r="10" ht="12" customHeight="1" spans="1:5">
       <c r="A10" s="1"/>
-      <c r="C10" s="3"/>
-      <c r="E10" s="12"/>
+      <c r="C10" s="6"/>
+      <c r="E10" s="7"/>
     </row>
     <row r="11" ht="54" spans="1:5">
       <c r="A11" s="1" t="s">
@@ -2686,64 +2967,64 @@
       <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>70</v>
+      <c r="C11" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
-      <c r="E11" s="12"/>
+      <c r="E11" s="7"/>
     </row>
     <row r="12" ht="67.5" spans="3:5">
-      <c r="C12" s="3" t="s">
-        <v>71</v>
+      <c r="C12" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="D12">
         <v>2</v>
       </c>
-      <c r="E12" s="12"/>
+      <c r="E12" s="7"/>
     </row>
     <row r="13" spans="3:5">
       <c r="C13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
-      <c r="E13" s="12"/>
+      <c r="E13" s="7"/>
     </row>
     <row r="14" spans="3:5">
       <c r="C14" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
-      <c r="E14" s="12"/>
+      <c r="E14" s="7"/>
     </row>
     <row r="15" customFormat="1" spans="1:5">
       <c r="A15" s="1"/>
       <c r="B15" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="3"/>
+      <c r="C15" s="6"/>
       <c r="D15">
         <v>1</v>
       </c>
-      <c r="E15" s="12"/>
+      <c r="E15" s="7"/>
     </row>
     <row r="16" customFormat="1" ht="40.5" spans="1:5">
       <c r="A16" s="1"/>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>74</v>
+      <c r="C16" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="D16">
         <v>2</v>
       </c>
-      <c r="E16" s="12"/>
+      <c r="E16" s="7"/>
     </row>
     <row r="17" customFormat="1" spans="2:5">
       <c r="B17" t="s">
@@ -2752,90 +3033,90 @@
       <c r="D17">
         <v>1</v>
       </c>
-      <c r="E17" s="12"/>
+      <c r="E17" s="7"/>
     </row>
     <row r="18" customFormat="1" spans="1:5">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5" t="s">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6">
+      <c r="C18" s="3"/>
+      <c r="D18" s="4">
         <f>SUM(D11:D17)</f>
         <v>10</v>
       </c>
-      <c r="E18" s="12" t="s">
-        <v>75</v>
+      <c r="E18" s="7" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="5:5">
-      <c r="E19" s="12"/>
+      <c r="E19" s="7"/>
     </row>
     <row r="20" customFormat="1" ht="67.5" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>76</v>
+      <c r="C20" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="D20">
         <v>2</v>
       </c>
-      <c r="E20" s="12"/>
+      <c r="E20" s="7"/>
     </row>
     <row r="21" customFormat="1" ht="67.5" spans="3:5">
-      <c r="C21" s="3" t="s">
-        <v>77</v>
+      <c r="C21" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="D21">
         <v>2</v>
       </c>
-      <c r="E21" s="12"/>
+      <c r="E21" s="7"/>
     </row>
     <row r="22" customFormat="1" ht="54" spans="3:5">
-      <c r="C22" s="3" t="s">
-        <v>78</v>
+      <c r="C22" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
-      <c r="E22" s="12"/>
+      <c r="E22" s="7"/>
     </row>
     <row r="23" customFormat="1" ht="52" customHeight="1" spans="3:5">
-      <c r="C23" s="3" t="s">
-        <v>79</v>
+      <c r="C23" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
-      <c r="E23" s="12"/>
+      <c r="E23" s="7"/>
     </row>
     <row r="24" customFormat="1" spans="1:5">
       <c r="A24" s="1"/>
       <c r="B24" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="3"/>
+      <c r="C24" s="6"/>
       <c r="D24">
         <v>1</v>
       </c>
-      <c r="E24" s="12"/>
+      <c r="E24" s="7"/>
     </row>
     <row r="25" customFormat="1" ht="40.5" spans="1:5">
       <c r="A25" s="1"/>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>80</v>
+      <c r="C25" s="6" t="s">
+        <v>82</v>
       </c>
       <c r="D25">
         <v>2</v>
       </c>
-      <c r="E25" s="12"/>
+      <c r="E25" s="7"/>
     </row>
     <row r="26" customFormat="1" spans="2:5">
       <c r="B26" t="s">
@@ -2844,186 +3125,176 @@
       <c r="D26">
         <v>1</v>
       </c>
-      <c r="E26" s="12"/>
+      <c r="E26" s="7"/>
     </row>
     <row r="27" customFormat="1" spans="1:5">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5" t="s">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6">
+      <c r="C27" s="3"/>
+      <c r="D27" s="4">
         <f>SUM(D19:D26)</f>
         <v>10</v>
       </c>
-      <c r="E27" s="12" t="s">
-        <v>75</v>
+      <c r="E27" s="7" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="1:5">
       <c r="A28" s="1"/>
-      <c r="C28" s="3"/>
-      <c r="E28" s="12"/>
+      <c r="C28" s="6"/>
+      <c r="E28" s="7"/>
     </row>
     <row r="29" customFormat="1" ht="40.5" spans="1:5">
       <c r="A29" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B29" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>82</v>
+      <c r="C29" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
-      <c r="E29" s="12"/>
-    </row>
-    <row r="30" customFormat="1" spans="1:5">
-      <c r="A30" s="1"/>
-      <c r="C30" s="3"/>
-      <c r="E30" s="12"/>
-    </row>
-    <row r="31" customFormat="1" spans="3:5">
-      <c r="C31" s="3" t="s">
-        <v>83</v>
-      </c>
+      <c r="E29" s="7"/>
+    </row>
+    <row r="30" customFormat="1" spans="3:5">
+      <c r="C30" s="6"/>
+      <c r="E30" s="7"/>
+    </row>
+    <row r="31" customFormat="1" spans="1:5">
+      <c r="A31" s="1"/>
+      <c r="B31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="6"/>
       <c r="D31">
         <v>1</v>
       </c>
-      <c r="E31" s="12"/>
-    </row>
-    <row r="32" customFormat="1" spans="1:5">
-      <c r="A32" s="1"/>
-      <c r="B32" t="s">
-        <v>27</v>
+      <c r="E31" s="7"/>
+    </row>
+    <row r="32" customFormat="1" ht="27" spans="1:5">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="C32" s="3"/>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32" s="12"/>
-    </row>
-    <row r="33" customFormat="1" ht="27" spans="1:5">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="6">
-        <f>SUM(D29:D32)</f>
-        <v>3</v>
-      </c>
-      <c r="E33" s="19" t="s">
-        <v>84</v>
-      </c>
+      <c r="D32" s="4">
+        <f>SUM(D29:D31)</f>
+        <v>2</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" customFormat="1" spans="1:3">
+      <c r="A33" s="1"/>
+      <c r="C33" s="6"/>
     </row>
     <row r="34" customFormat="1" spans="1:3">
       <c r="A34" s="1"/>
-      <c r="C34" s="3"/>
-    </row>
-    <row r="35" customFormat="1" spans="1:3">
-      <c r="A35" s="1"/>
-      <c r="C35" s="3"/>
-    </row>
-    <row r="36" customFormat="1" spans="1:5">
-      <c r="A36" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="C34" s="6"/>
+    </row>
+    <row r="35" customFormat="1" spans="1:5">
+      <c r="A35" s="8" t="s">
         <v>55</v>
       </c>
+      <c r="B35" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" customFormat="1" spans="1:4">
+      <c r="A36" s="8"/>
       <c r="C36" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" customFormat="1" spans="1:4">
       <c r="A37" s="8"/>
       <c r="C37" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D37">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" customFormat="1" spans="1:4">
       <c r="A38" s="8"/>
       <c r="C38" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D38">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" customFormat="1" spans="1:4">
       <c r="A39" s="8"/>
       <c r="C39" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D39">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" customFormat="1" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" customFormat="1" spans="1:5">
       <c r="A40" s="8"/>
-      <c r="C40" t="s">
-        <v>61</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" customFormat="1" spans="1:5">
+      <c r="B40" t="s">
+        <v>31</v>
+      </c>
+      <c r="D40" s="4">
+        <f>SUM(D35,D36,D37,D39,D38)</f>
+        <v>22</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" customFormat="1" spans="1:4">
       <c r="A41" s="8"/>
-      <c r="B41" t="s">
-        <v>31</v>
-      </c>
-      <c r="D41" s="6">
-        <f>SUM(D36,D37,D38,D40,D39)</f>
-        <v>22</v>
-      </c>
-      <c r="E41" s="14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="42" customFormat="1" spans="1:4">
-      <c r="A42" s="8"/>
-      <c r="D42" s="10"/>
-    </row>
-    <row r="43" customFormat="1" spans="1:5">
-      <c r="A43" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="1"/>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" s="12"/>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74" s="1"/>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" s="22"/>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" s="8"/>
-    </row>
-    <row r="125" spans="1:1">
-      <c r="A125" s="6" t="s">
+      <c r="D41" s="10"/>
+    </row>
+    <row r="42" customFormat="1" spans="1:5">
+      <c r="A42" s="4" t="s">
         <v>88</v>
+      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="1"/>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="7"/>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="1"/>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="19"/>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="8"/>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -3038,8 +3309,8 @@
   <sheetPr/>
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -3078,8 +3349,8 @@
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>89</v>
+      <c r="C2" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -3096,18 +3367,18 @@
     </row>
     <row r="3" customFormat="1" ht="148.5" spans="1:5">
       <c r="A3" s="1"/>
-      <c r="C3" s="3" t="s">
-        <v>90</v>
+      <c r="C3" s="6" t="s">
+        <v>91</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
-      <c r="E3" s="12"/>
+      <c r="E3" s="7"/>
     </row>
     <row r="4" customFormat="1" ht="148.5" spans="1:4">
       <c r="A4" s="1"/>
-      <c r="C4" s="3" t="s">
-        <v>91</v>
+      <c r="C4" s="6" t="s">
+        <v>92</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -3115,36 +3386,36 @@
     </row>
     <row r="5" customFormat="1" ht="67.5" spans="1:5">
       <c r="A5" s="1"/>
-      <c r="C5" s="3" t="s">
-        <v>92</v>
+      <c r="C5" s="6" t="s">
+        <v>93</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
-      <c r="E5" s="12"/>
+      <c r="E5" s="7"/>
     </row>
     <row r="6" customFormat="1" spans="1:5">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="6"/>
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6" s="12"/>
+      <c r="E6" s="7"/>
     </row>
     <row r="7" customFormat="1" spans="1:5">
       <c r="A7" s="1"/>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="6"/>
       <c r="D7">
         <v>4</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>93</v>
+      <c r="E7" s="7" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="2:5">
@@ -3154,31 +3425,31 @@
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8" s="12"/>
+      <c r="E8" s="7"/>
     </row>
     <row r="9" customFormat="1" spans="1:5">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6">
+      <c r="C9" s="3"/>
+      <c r="D9" s="4">
         <f>SUM(D2:D8)</f>
         <v>12</v>
       </c>
-      <c r="E9" s="12" t="s">
-        <v>75</v>
+      <c r="E9" s="7" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="10" customFormat="1" ht="12" customHeight="1" spans="1:5">
       <c r="A10" s="1"/>
-      <c r="C10" s="3"/>
-      <c r="E10" s="12"/>
+      <c r="C10" s="6"/>
+      <c r="E10" s="7"/>
     </row>
     <row r="11" customFormat="1" ht="12" customHeight="1" spans="1:5">
       <c r="A11" s="1"/>
-      <c r="C11" s="3"/>
-      <c r="E11" s="12"/>
+      <c r="C11" s="6"/>
+      <c r="E11" s="7"/>
     </row>
     <row r="12" customFormat="1" spans="1:5">
       <c r="A12" s="1" t="s">
@@ -3187,86 +3458,86 @@
       <c r="B12" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>94</v>
+      <c r="C12" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="D12">
         <v>3</v>
       </c>
-      <c r="E12" s="12"/>
+      <c r="E12" s="7"/>
     </row>
     <row r="13" customFormat="1" spans="1:5">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5" t="s">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6">
+      <c r="C13" s="3"/>
+      <c r="D13" s="4">
         <f>SUM(D12:D12)</f>
         <v>3</v>
       </c>
-      <c r="E13" s="12" t="s">
-        <v>95</v>
+      <c r="E13" s="7" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="5:5">
-      <c r="E14" s="12"/>
+      <c r="E14" s="7"/>
     </row>
     <row r="15" customFormat="1" ht="67.5" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>96</v>
+      <c r="C15" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="D15">
         <v>3</v>
       </c>
-      <c r="E15" s="12"/>
+      <c r="E15" s="7"/>
     </row>
     <row r="16" customFormat="1" ht="54" spans="3:5">
-      <c r="C16" s="3" t="s">
-        <v>97</v>
+      <c r="C16" s="6" t="s">
+        <v>98</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
-      <c r="E16" s="12"/>
+      <c r="E16" s="7"/>
     </row>
     <row r="17" customFormat="1" ht="67.5" spans="3:5">
-      <c r="C17" s="3" t="s">
-        <v>98</v>
+      <c r="C17" s="6" t="s">
+        <v>99</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
-      <c r="E17" s="12"/>
+      <c r="E17" s="7"/>
     </row>
     <row r="18" customFormat="1" spans="1:5">
       <c r="A18" s="1"/>
       <c r="B18" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="3"/>
+      <c r="C18" s="6"/>
       <c r="D18">
         <v>1</v>
       </c>
-      <c r="E18" s="12"/>
+      <c r="E18" s="7"/>
     </row>
     <row r="19" customFormat="1" ht="254" customHeight="1" spans="1:5">
       <c r="A19" s="1"/>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="17">
+      <c r="C19" s="14"/>
+      <c r="D19" s="15">
         <v>5</v>
       </c>
-      <c r="E19" s="19" t="s">
-        <v>99</v>
+      <c r="E19" s="17" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="2:5">
@@ -3276,45 +3547,45 @@
       <c r="D20">
         <v>1</v>
       </c>
-      <c r="E20" s="12"/>
+      <c r="E20" s="7"/>
     </row>
     <row r="21" customFormat="1" spans="1:5">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5" t="s">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6">
+      <c r="C21" s="3"/>
+      <c r="D21" s="4">
         <f>SUM(D15:D20)</f>
         <v>12</v>
       </c>
-      <c r="E21" s="12" t="s">
-        <v>75</v>
+      <c r="E21" s="7" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="1:3">
       <c r="A22" s="1"/>
-      <c r="C22" s="3"/>
+      <c r="C22" s="6"/>
     </row>
     <row r="23" customFormat="1" ht="54" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B23" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>100</v>
+      <c r="C23" s="6" t="s">
+        <v>101</v>
       </c>
       <c r="D23">
         <v>2</v>
       </c>
-      <c r="E23" s="19"/>
+      <c r="E23" s="17"/>
     </row>
     <row r="24" customFormat="1" ht="81" spans="1:4">
       <c r="A24" s="1"/>
-      <c r="C24" s="3" t="s">
-        <v>101</v>
+      <c r="C24" s="6" t="s">
+        <v>102</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -3325,23 +3596,23 @@
       <c r="B25" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="3"/>
+      <c r="C25" s="6"/>
       <c r="D25">
         <v>1</v>
       </c>
-      <c r="E25" s="12"/>
+      <c r="E25" s="7"/>
     </row>
     <row r="26" customFormat="1" ht="44" customHeight="1" spans="1:5">
-      <c r="A26" s="18"/>
-      <c r="B26" s="15" t="s">
+      <c r="A26" s="16"/>
+      <c r="B26" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="17">
+      <c r="C26" s="14"/>
+      <c r="D26" s="15">
         <v>5</v>
       </c>
-      <c r="E26" s="20" t="s">
-        <v>102</v>
+      <c r="E26" s="18" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="27" customFormat="1" spans="2:5">
@@ -3351,62 +3622,62 @@
       <c r="D27">
         <v>1</v>
       </c>
-      <c r="E27" s="12"/>
+      <c r="E27" s="7"/>
     </row>
     <row r="28" customFormat="1" spans="1:5">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5" t="s">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6">
+      <c r="C28" s="3"/>
+      <c r="D28" s="4">
         <f>SUM(D23:D27)</f>
         <v>11</v>
       </c>
-      <c r="E28" s="12" t="s">
-        <v>75</v>
+      <c r="E28" s="7" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="29" customFormat="1" spans="5:5">
-      <c r="E29" s="12"/>
+      <c r="E29" s="7"/>
     </row>
     <row r="30" customFormat="1" spans="5:5">
-      <c r="E30" s="12"/>
+      <c r="E30" s="7"/>
     </row>
     <row r="31" customFormat="1" ht="202" customHeight="1" spans="1:6">
       <c r="A31" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B31" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C31" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
-      <c r="E31" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="F31" s="13" t="s">
+      <c r="E31" s="11" t="s">
         <v>105</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="32" customFormat="1" spans="1:5">
       <c r="A32" s="8"/>
       <c r="C32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D32">
         <v>16</v>
       </c>
-      <c r="E32" s="3"/>
+      <c r="E32" s="6"/>
     </row>
     <row r="33" customFormat="1" spans="1:4">
       <c r="A33" s="8"/>
       <c r="C33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D33">
         <v>2</v>
@@ -3415,7 +3686,7 @@
     <row r="34" customFormat="1" spans="1:4">
       <c r="A34" s="8"/>
       <c r="C34" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -3424,7 +3695,7 @@
     <row r="35" customFormat="1" spans="1:4">
       <c r="A35" s="8"/>
       <c r="C35" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -3435,31 +3706,31 @@
       <c r="B36" t="s">
         <v>31</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="4">
         <f>SUM(D31:D35)</f>
         <v>22</v>
       </c>
-      <c r="E36" s="14" t="s">
-        <v>86</v>
+      <c r="E36" s="12" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="37" customFormat="1" spans="1:5">
       <c r="A37" s="8"/>
       <c r="D37" s="9"/>
-      <c r="E37" s="14"/>
+      <c r="E37" s="12"/>
     </row>
     <row r="38" customFormat="1" spans="1:4">
       <c r="A38" s="8"/>
       <c r="D38" s="10"/>
     </row>
     <row r="39" customFormat="1" spans="1:5">
-      <c r="A39" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
+      <c r="A39" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -3474,8 +3745,8 @@
   <sheetPr/>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="$A4:$XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3483,7 +3754,7 @@
     <col min="2" max="2" width="25.5" customWidth="1"/>
     <col min="3" max="3" width="46.625" customWidth="1"/>
     <col min="5" max="5" width="66" customWidth="1"/>
-    <col min="6" max="6" width="36.875" customWidth="1"/>
+    <col min="6" max="6" width="42" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="3:8">
@@ -3511,10 +3782,10 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C2" s="3" t="s">
         <v>108</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -3531,8 +3802,8 @@
     </row>
     <row r="3" customFormat="1" spans="1:4">
       <c r="A3" s="1"/>
-      <c r="C3" s="3" t="s">
-        <v>109</v>
+      <c r="C3" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -3547,14 +3818,14 @@
       </c>
     </row>
     <row r="5" customFormat="1" spans="2:9">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="1">
         <v>4</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>110</v>
+      <c r="E5" s="5" t="s">
+        <v>111</v>
       </c>
       <c r="I5" s="1"/>
     </row>
@@ -3570,28 +3841,28 @@
       <c r="D7" s="1"/>
     </row>
     <row r="8" customFormat="1" spans="1:5">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5" t="s">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6">
+      <c r="C8" s="3"/>
+      <c r="D8" s="4">
         <f>SUM(D2:D6)</f>
         <v>9</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>111</v>
+      <c r="E8" s="4" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="9" customFormat="1" ht="12" customHeight="1" spans="1:5">
       <c r="A9" s="1"/>
-      <c r="C9" s="3"/>
-      <c r="E9" s="12"/>
+      <c r="C9" s="6"/>
+      <c r="E9" s="7"/>
     </row>
     <row r="10" customFormat="1" ht="12" customHeight="1" spans="1:5">
       <c r="A10" s="1"/>
-      <c r="C10" s="3"/>
-      <c r="E10" s="12"/>
+      <c r="C10" s="6"/>
+      <c r="E10" s="7"/>
     </row>
     <row r="11" customFormat="1" ht="73" customHeight="1" spans="1:5">
       <c r="A11" s="1" t="s">
@@ -3600,25 +3871,25 @@
       <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>112</v>
+      <c r="C11" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="E11" s="12"/>
+      <c r="E11" s="7"/>
     </row>
     <row r="12" spans="3:4">
       <c r="C12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D12">
         <v>0.5</v>
       </c>
     </row>
     <row r="13" ht="54" spans="3:4">
-      <c r="C13" s="3" t="s">
-        <v>114</v>
+      <c r="C13" s="6" t="s">
+        <v>115</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -3632,15 +3903,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" customFormat="1" spans="2:9">
-      <c r="B15" s="4" t="s">
+    <row r="15" customFormat="1" ht="67.5" spans="2:9">
+      <c r="B15" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D15" s="1">
         <v>4</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>115</v>
+      <c r="E15" s="6" t="s">
+        <v>116</v>
       </c>
       <c r="I15" s="1"/>
     </row>
@@ -3656,16 +3927,16 @@
       <c r="D17" s="1"/>
     </row>
     <row r="18" customFormat="1" spans="1:5">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5" t="s">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6">
+      <c r="C18" s="3"/>
+      <c r="D18" s="4">
         <f>SUM(D11:D16)</f>
         <v>9.5</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="4" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3677,7 +3948,7 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -3686,61 +3957,61 @@
     <row r="21" customFormat="1" spans="1:4">
       <c r="A21" s="1"/>
       <c r="C21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" s="2" customFormat="1" spans="1:5">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7" t="s">
+    <row r="22" customFormat="1" spans="1:5">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="6">
+      <c r="C22" s="3"/>
+      <c r="D22" s="4">
         <f>SUM(D20:D21)</f>
         <v>2</v>
       </c>
-      <c r="E22" s="6" t="s">
-        <v>118</v>
+      <c r="E22" s="4" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="23" customFormat="1"/>
-    <row r="24" customFormat="1" ht="351" spans="1:6">
+    <row r="24" customFormat="1" ht="256.5" spans="1:6">
       <c r="A24" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B24" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F24" s="13" t="s">
+      <c r="E24" s="11" t="s">
         <v>120</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="25" customFormat="1" spans="1:5">
       <c r="A25" s="8"/>
       <c r="C25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D25">
         <v>16</v>
       </c>
-      <c r="E25" s="3"/>
+      <c r="E25" s="6"/>
     </row>
     <row r="26" customFormat="1" spans="1:4">
       <c r="A26" s="8"/>
       <c r="C26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -3749,7 +4020,7 @@
     <row r="27" customFormat="1" spans="1:4">
       <c r="A27" s="8"/>
       <c r="C27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -3758,7 +4029,7 @@
     <row r="28" customFormat="1" spans="1:4">
       <c r="A28" s="8"/>
       <c r="C28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -3769,31 +4040,31 @@
       <c r="B29" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="4">
         <f>SUM(D24:D28)</f>
         <v>22</v>
       </c>
-      <c r="E29" s="14" t="s">
-        <v>86</v>
+      <c r="E29" s="12" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="30" customFormat="1" spans="1:5">
       <c r="A30" s="8"/>
       <c r="D30" s="9"/>
-      <c r="E30" s="14"/>
+      <c r="E30" s="12"/>
     </row>
     <row r="31" customFormat="1" spans="1:4">
       <c r="A31" s="8"/>
       <c r="D31" s="10"/>
     </row>
     <row r="32" customFormat="1" spans="1:5">
-      <c r="A32" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
+      <c r="A32" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -3801,4 +4072,306 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="7"/>
+  <cols>
+    <col min="3" max="3" width="35.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="3:8">
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" ht="121.5" spans="1:5">
+      <c r="A3" s="1"/>
+      <c r="C3" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" customFormat="1" ht="108" spans="1:5">
+      <c r="A4" s="1"/>
+      <c r="C4" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" customFormat="1" spans="1:5">
+      <c r="A5" s="1"/>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" customFormat="1" ht="409.5" spans="1:5">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="2:5">
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" customFormat="1" spans="1:5">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4">
+        <f>SUM(D2:D7)</f>
+        <v>8</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="3" max="3" width="31.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="3:8">
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="3:4">
+      <c r="C3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4">
+      <c r="C4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="2:4">
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="2:9">
+      <c r="B7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="1">
+        <v>4</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" customFormat="1" spans="2:4">
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="4:4">
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" customFormat="1" spans="1:5">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="4">
+        <f>SUM(D2:D8)</f>
+        <v>10</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>